--- a/beads/calc.xlsx
+++ b/beads/calc.xlsx
@@ -71,10 +71,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1838,6 +1839,1432 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$2:$Z$62</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>556.52800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>559.09298000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>561.67863999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>564.28546000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>566.91391999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>569.56449999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>572.23767999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>574.93394000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>577.65376000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>580.39761999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>583.16599999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>585.95938000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>588.77823999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>591.62306000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>594.49432000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>597.39250000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>600.31808000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>603.27153999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>606.25336000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>609.26401999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>612.30399999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>615.37378000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>618.47384</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>621.60465999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>624.76671999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>627.96050000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>631.18647999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>634.44514000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>637.73695999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>641.06241999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>644.42200000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>647.81618000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>651.24544000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>654.71025999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>658.21112000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>661.74850000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>665.32288000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>668.93474000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>672.58456000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>676.27282000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>683.76657999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>687.57303999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>691.41985999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>695.30751999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>699.23649999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>703.20727999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>707.22033999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>711.27616</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>715.37522000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>719.51800000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>723.70497999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>727.93664000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>732.21345999999994</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>736.53592000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>740.90449999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>745.31968000000006</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>749.78193999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>754.29175999999995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>758.84961999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>763.45600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$2:$AD$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>31998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36416</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32891</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33487</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34732</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35122</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32972</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34407</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34151</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34855</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33321</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36242</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34460</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36330</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34214</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33110</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34834</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33903</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37936</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>34008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34607</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35716</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35555</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32958</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35978</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35654</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>37137</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36413</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37922</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41280</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>47384</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47238</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45446</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45356</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42234</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40741</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41754</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41177</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39660</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39222</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>36595</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>37349</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39026</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>35963</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>34916</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>35816</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>36183</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>37743</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>37723</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>37487</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>38494</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42366</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5D8C-4F61-985D-9D3FB8DC3479}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="432796880"/>
+        <c:axId val="432801472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="432796880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="600"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432801472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="432801472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432796880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$2:$Z$62</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>556.52800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>559.09298000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>561.67863999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>564.28546000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>566.91391999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>569.56449999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>572.23767999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>574.93394000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>577.65376000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>580.39761999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>583.16599999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>585.95938000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>588.77823999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>591.62306000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>594.49432000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>597.39250000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>600.31808000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>603.27153999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>606.25336000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>609.26401999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>612.30399999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>615.37378000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>618.47384</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>621.60465999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>624.76671999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>627.96050000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>631.18647999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>634.44514000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>637.73695999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>641.06241999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>644.42200000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>647.81618000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>651.24544000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>654.71025999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>658.21112000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>661.74850000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>665.32288000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>668.93474000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>672.58456000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>676.27282000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>683.76657999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>687.57303999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>691.41985999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>695.30751999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>699.23649999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>703.20727999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>707.22033999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>711.27616</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>715.37522000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>719.51800000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>723.70497999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>727.93664000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>732.21345999999994</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>736.53592000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>740.90449999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>745.31968000000006</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>749.78193999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>754.29175999999995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>758.84961999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>763.45600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$2:$AQ$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>40983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41082</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43565</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47838</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45273</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48138</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46462</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47496</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45826</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44550</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42935</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42742</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42448</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41462</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42650</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42530</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43663</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43633</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F390-4AAB-AD66-5C0FB60E1EA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$2:$Z$62</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>556.52800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>559.09298000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>561.67863999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>564.28546000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>566.91391999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>569.56449999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>572.23767999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>574.93394000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>577.65376000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>580.39761999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>583.16599999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>585.95938000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>588.77823999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>591.62306000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>594.49432000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>597.39250000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>600.31808000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>603.27153999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>606.25336000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>609.26401999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>612.30399999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>615.37378000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>618.47384</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>621.60465999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>624.76671999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>627.96050000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>631.18647999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>634.44514000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>637.73695999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>641.06241999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>644.42200000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>647.81618000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>651.24544000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>654.71025999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>658.21112000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>661.74850000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>665.32288000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>668.93474000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>672.58456000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>676.27282000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>683.76657999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>687.57303999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>691.41985999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>695.30751999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>699.23649999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>703.20727999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>707.22033999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>711.27616</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>715.37522000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>719.51800000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>723.70497999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>727.93664000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>732.21345999999994</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>736.53592000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>740.90449999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>745.31968000000006</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>749.78193999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>754.29175999999995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>758.84961999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>763.45600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AS$2:$AS$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48596</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55972</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59790</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55433</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56388</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48546</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48824</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49158</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47507</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43173</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43083</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43430</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42056</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43147</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41512</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43834</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40822</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F390-4AAB-AD66-5C0FB60E1EA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="432796880"/>
+        <c:axId val="432801472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="432796880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432801472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="432801472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="30000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432796880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2422,15 +3849,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2458,15 +3885,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2488,6 +3915,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB19C4FF-31EB-4EF0-8BD6-F1D38CC3BFE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2ABB79F-9704-4496-81E4-F2B43617C6D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2793,15 +4294,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC2F9C7-2B8A-4BC7-8D3E-346E37D8E7E2}">
-  <dimension ref="D1:Q58"/>
+  <dimension ref="D1:AT65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L58"/>
+    <sheetView tabSelected="1" topLeftCell="AC65" workbookViewId="0">
+      <selection activeCell="AR62" sqref="AR62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="29" max="33" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="40" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:46" x14ac:dyDescent="0.25">
       <c r="F1">
         <v>680</v>
       </c>
@@ -2823,13 +4329,33 @@
         <f t="shared" si="0"/>
         <v>4953.8095999999996</v>
       </c>
+      <c r="AC1" s="1">
+        <f>MAX(AC2:AC62)</f>
+        <v>50297</v>
+      </c>
+      <c r="AD1" s="1">
+        <f t="shared" ref="AD1:AG1" si="1">MAX(AD2:AD62)</f>
+        <v>47384</v>
+      </c>
+      <c r="AE1" s="1">
+        <f t="shared" si="1"/>
+        <v>45774</v>
+      </c>
+      <c r="AF1" s="1">
+        <f t="shared" si="1"/>
+        <v>51885</v>
+      </c>
+      <c r="AG1" s="1">
+        <f t="shared" si="1"/>
+        <v>48010</v>
+      </c>
     </row>
-    <row r="2" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E58" si="1">$D$15-D2</f>
+        <f t="shared" ref="E2:E58" si="2">$D$15-D2</f>
         <v>13</v>
       </c>
       <c r="F2">
@@ -2842,7 +4368,7 @@
         <v>1820</v>
       </c>
       <c r="I2" s="2">
-        <f>$Q$3*E2^3 + $Q$4*E2^2 + $Q$5*E2 + $Q$6</f>
+        <f t="shared" ref="I2:I28" si="3">$Q$3*E2^3 + $Q$4*E2^2 + $Q$5*E2 + $Q$6</f>
         <v>732.21345999999994</v>
       </c>
       <c r="J2">
@@ -2863,13 +4389,74 @@
       <c r="O2" t="s">
         <v>1</v>
       </c>
+      <c r="Z2" s="2">
+        <f>$Q$3*AA2^3 + $Q$4*AA2^2 + $Q$5*AA2 + $Q$6</f>
+        <v>556.52800000000002</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" ref="AA2:AA41" si="4">-$AB$42+AB2</f>
+        <v>-40</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>33159</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>31998</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>32972</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>33227</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>33652</v>
+      </c>
+      <c r="AI2" s="1">
+        <f>AC2/$AC$1</f>
+        <v>0.65926397200628273</v>
+      </c>
+      <c r="AJ2" s="1">
+        <f>AD2/$AD$1</f>
+        <v>0.67529123754853959</v>
+      </c>
+      <c r="AK2" s="1">
+        <f>AE2/$AE$1</f>
+        <v>0.72032157993620838</v>
+      </c>
+      <c r="AL2" s="1">
+        <f>AF2/$AF$1</f>
+        <v>0.64039703189746555</v>
+      </c>
+      <c r="AM2" s="1">
+        <f>AG2/$AG$1</f>
+        <v>0.70093730472818161</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>42550</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>40983</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>43712</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>42759</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>41771</v>
+      </c>
     </row>
-    <row r="3" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="F3">
@@ -2882,19 +4469,19 @@
         <v>1729.3423</v>
       </c>
       <c r="I3" s="2">
-        <f>$Q$3*E3^3 + $Q$4*E3^2 + $Q$5*E3 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>727.93664000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J58" si="2">F3/$J$1-$F$5/$J$1</f>
+        <f t="shared" ref="J3:J58" si="5">F3/$J$1-$F$5/$J$1</f>
         <v>-1.6818654448625237E-2</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K58" si="3">G3/$J$1-$G$5/$J$1</f>
+        <f t="shared" ref="K3:K58" si="6">G3/$J$1-$G$5/$J$1</f>
         <v>1.3185380970317517E-2</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L58" si="4">H3/$J$1-$H$5/$J$1</f>
+        <f t="shared" ref="L3:L58" si="7">H3/$J$1-$H$5/$J$1</f>
         <v>1.0343066467323248E-2</v>
       </c>
       <c r="N3">
@@ -2906,13 +4493,74 @@
       <c r="Q3" s="1">
         <v>8.0000000000000007E-5</v>
       </c>
+      <c r="Z3" s="2">
+        <f t="shared" ref="Z3:Z65" si="8">$Q$3*AA3^3 + $Q$4*AA3^2 + $Q$5*AA3 + $Q$6</f>
+        <v>559.09298000000001</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="4"/>
+        <v>-39</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>35548</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>35125</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>34597</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>34265</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>34882</v>
+      </c>
+      <c r="AI3" s="1">
+        <f t="shared" ref="AI3:AI62" si="9">AC3/$AC$1</f>
+        <v>0.70676183470187093</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f t="shared" ref="AJ3:AJ62" si="10">AD3/$AD$1</f>
+        <v>0.74128397771399623</v>
+      </c>
+      <c r="AK3" s="1">
+        <f t="shared" ref="AK3:AK62" si="11">AE3/$AE$1</f>
+        <v>0.75582208240485871</v>
+      </c>
+      <c r="AL3" s="1">
+        <f t="shared" ref="AL3:AL62" si="12">AF3/$AF$1</f>
+        <v>0.6604028139153898</v>
+      </c>
+      <c r="AM3" s="1">
+        <f t="shared" ref="AM3:AM62" si="13">AG3/$AG$1</f>
+        <v>0.72655696729847952</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>43126</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>41735</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>40031</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>43654</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>46679</v>
+      </c>
     </row>
-    <row r="4" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F4">
@@ -2925,19 +4573,19 @@
         <v>1848.1409000000001</v>
       </c>
       <c r="I4" s="2">
-        <f>$Q$3*E4^3 + $Q$4*E4^2 + $Q$5*E4 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>723.70497999999998</v>
       </c>
       <c r="J4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-6.0971027820889145E-3</v>
       </c>
       <c r="K4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.3549755377098256E-2</v>
       </c>
       <c r="L4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.1643805616114415E-2</v>
       </c>
       <c r="N4">
@@ -2949,13 +4597,74 @@
       <c r="Q4">
         <v>1.9699999999999999E-2</v>
       </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="8"/>
+        <v>561.67863999999997</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="4"/>
+        <v>-38</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>35974</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>34864</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>33042</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>34019</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>33774</v>
+      </c>
+      <c r="AI4" s="1">
+        <f t="shared" si="9"/>
+        <v>0.71523152474302643</v>
+      </c>
+      <c r="AJ4" s="1">
+        <f t="shared" si="10"/>
+        <v>0.73577578929596488</v>
+      </c>
+      <c r="AK4" s="1">
+        <f t="shared" si="11"/>
+        <v>0.7218508323502425</v>
+      </c>
+      <c r="AL4" s="1">
+        <f t="shared" si="12"/>
+        <v>0.65566155921750024</v>
+      </c>
+      <c r="AM4" s="1">
+        <f t="shared" si="13"/>
+        <v>0.70347844199125187</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>44179</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>42332</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>42148</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>42643</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>44881</v>
+      </c>
     </row>
-    <row r="5" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F5">
@@ -2968,19 +4677,19 @@
         <v>1690.0862999999999</v>
       </c>
       <c r="I5" s="2">
-        <f>$Q$3*E5^3 + $Q$4*E5^2 + $Q$5*E5 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>719.51800000000003</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N5">
@@ -2992,13 +4701,74 @@
       <c r="Q5">
         <v>3.7467999999999999</v>
       </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="8"/>
+        <v>564.28546000000006</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="4"/>
+        <v>-37</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>34717</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>33824</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>33818</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>34331</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>34147</v>
+      </c>
+      <c r="AI5" s="1">
+        <f t="shared" si="9"/>
+        <v>0.69023997455116604</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f t="shared" si="10"/>
+        <v>0.71382745230457534</v>
+      </c>
+      <c r="AK5" s="1">
+        <f t="shared" si="11"/>
+        <v>0.73880368768296412</v>
+      </c>
+      <c r="AL5" s="1">
+        <f t="shared" si="12"/>
+        <v>0.66167485785872604</v>
+      </c>
+      <c r="AM5" s="1">
+        <f t="shared" si="13"/>
+        <v>0.71124765673817958</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>43606</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>41082</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>44186</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>47211</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>44483</v>
+      </c>
     </row>
-    <row r="6" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F6">
@@ -3011,19 +4781,19 @@
         <v>2093.6190999999999</v>
       </c>
       <c r="I6" s="2">
-        <f>$Q$3*E6^3 + $Q$4*E6^2 + $Q$5*E6 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>715.37522000000001</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.0171317182242585E-2</v>
       </c>
       <c r="K6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.6177508688963727E-4</v>
       </c>
       <c r="L6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.10632174883189954</v>
       </c>
       <c r="N6">
@@ -3035,13 +4805,74 @@
       <c r="Q6">
         <v>680</v>
       </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="8"/>
+        <v>566.91391999999996</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="4"/>
+        <v>-36</v>
+      </c>
+      <c r="AB6">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>36746</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>36416</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>33142</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>34941</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>32574</v>
+      </c>
+      <c r="AI6" s="1">
+        <f t="shared" si="9"/>
+        <v>0.73058035270493271</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f t="shared" si="10"/>
+        <v>0.76852946142157685</v>
+      </c>
+      <c r="AK6" s="1">
+        <f t="shared" si="11"/>
+        <v>0.72403547865600559</v>
+      </c>
+      <c r="AL6" s="1">
+        <f t="shared" si="12"/>
+        <v>0.67343162763804565</v>
+      </c>
+      <c r="AM6" s="1">
+        <f t="shared" si="13"/>
+        <v>0.67848364923974169</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>47354</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>42156</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>42018</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>44161</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>43701</v>
+      </c>
     </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F7">
@@ -3054,28 +4885,89 @@
         <v>2138.1785</v>
       </c>
       <c r="I7" s="2">
-        <f>$Q$3*E7^3 + $Q$4*E7^2 + $Q$5*E7 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>711.27616</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.122650598905095E-3</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.3160922895780423E-2</v>
       </c>
       <c r="L7">
+        <f t="shared" si="7"/>
+        <v>0.11806214102529783</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="8"/>
+        <v>569.56449999999995</v>
+      </c>
+      <c r="AA7">
         <f t="shared" si="4"/>
-        <v>0.11806214102529783</v>
+        <v>-35</v>
+      </c>
+      <c r="AB7">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>35940</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>32891</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>34163</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>34322</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>35534</v>
+      </c>
+      <c r="AI7" s="1">
+        <f t="shared" si="9"/>
+        <v>0.7145555400918544</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f t="shared" si="10"/>
+        <v>0.69413726152287691</v>
+      </c>
+      <c r="AK7" s="1">
+        <f t="shared" si="11"/>
+        <v>0.7463407174378468</v>
+      </c>
+      <c r="AL7" s="1">
+        <f t="shared" si="12"/>
+        <v>0.66150139732099833</v>
+      </c>
+      <c r="AM7" s="1">
+        <f t="shared" si="13"/>
+        <v>0.7401374713601333</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>48909</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>40825</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>46062</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>45714</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>49162</v>
       </c>
     </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="F8">
@@ -3088,28 +4980,89 @@
         <v>2363.0120000000002</v>
       </c>
       <c r="I8" s="2">
-        <f>$Q$3*E8^3 + $Q$4*E8^2 + $Q$5*E8 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>707.22033999999996</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.3228775688250316E-2</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.4899497095531196E-2</v>
       </c>
       <c r="L8">
+        <f t="shared" si="7"/>
+        <v>0.17730067359562901</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="8"/>
+        <v>572.23767999999995</v>
+      </c>
+      <c r="AA8">
         <f t="shared" si="4"/>
-        <v>0.17730067359562901</v>
+        <v>-34</v>
+      </c>
+      <c r="AB8">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>37800</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>33487</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>33813</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>33565</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>32745</v>
+      </c>
+      <c r="AI8" s="1">
+        <f t="shared" si="9"/>
+        <v>0.75153587689126589</v>
+      </c>
+      <c r="AJ8" s="1">
+        <f t="shared" si="10"/>
+        <v>0.70671534695255778</v>
+      </c>
+      <c r="AK8" s="1">
+        <f t="shared" si="11"/>
+        <v>0.73869445536767597</v>
+      </c>
+      <c r="AL8" s="1">
+        <f t="shared" si="12"/>
+        <v>0.64691143875879353</v>
+      </c>
+      <c r="AM8" s="1">
+        <f t="shared" si="13"/>
+        <v>0.68204540720683193</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>48020</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>42192</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>44761</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>49561</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>52056</v>
       </c>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F9">
@@ -3122,28 +5075,89 @@
         <v>2736.6667000000002</v>
       </c>
       <c r="I9" s="2">
-        <f>$Q$3*E9^3 + $Q$4*E9^2 + $Q$5*E9 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>703.20727999999997</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1621458522026451E-3</v>
       </c>
       <c r="K9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-3.072593698338677E-2</v>
       </c>
       <c r="L9">
+        <f t="shared" si="7"/>
+        <v>0.27575022010897016</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="8"/>
+        <v>574.93394000000001</v>
+      </c>
+      <c r="AA9">
         <f t="shared" si="4"/>
-        <v>0.27575022010897016</v>
+        <v>-33</v>
+      </c>
+      <c r="AB9">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>40659</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>34732</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>34117</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>32789</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>31999</v>
+      </c>
+      <c r="AI9" s="1">
+        <f t="shared" si="9"/>
+        <v>0.80837823329423231</v>
+      </c>
+      <c r="AJ9" s="1">
+        <f t="shared" si="10"/>
+        <v>0.73299003883167313</v>
+      </c>
+      <c r="AK9" s="1">
+        <f t="shared" si="11"/>
+        <v>0.74533578013719581</v>
+      </c>
+      <c r="AL9" s="1">
+        <f t="shared" si="12"/>
+        <v>0.63195528572805237</v>
+      </c>
+      <c r="AM9" s="1">
+        <f t="shared" si="13"/>
+        <v>0.66650697771297651</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>53021</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>43565</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>47079</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>48596</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>54251</v>
       </c>
     </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>8</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F10">
@@ -3156,28 +5170,89 @@
         <v>2783.4524000000001</v>
       </c>
       <c r="I10" s="2">
-        <f>$Q$3*E10^3 + $Q$4*E10^2 + $Q$5*E10 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>699.23649999999998</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.16595412733037795</v>
       </c>
       <c r="K10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.9920840867906935E-2</v>
       </c>
       <c r="L10">
+        <f t="shared" si="7"/>
+        <v>0.28807719190488007</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="8"/>
+        <v>577.65376000000003</v>
+      </c>
+      <c r="AA10">
         <f t="shared" si="4"/>
-        <v>0.28807719190488007</v>
+        <v>-32</v>
+      </c>
+      <c r="AB10">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>43708</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>35122</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>34461</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>34403</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>33136</v>
+      </c>
+      <c r="AI10" s="1">
+        <f t="shared" si="9"/>
+        <v>0.86899815098316002</v>
+      </c>
+      <c r="AJ10" s="1">
+        <f t="shared" si="10"/>
+        <v>0.74122066520344421</v>
+      </c>
+      <c r="AK10" s="1">
+        <f t="shared" si="11"/>
+        <v>0.7528509634290208</v>
+      </c>
+      <c r="AL10" s="1">
+        <f t="shared" si="12"/>
+        <v>0.66306254216054739</v>
+      </c>
+      <c r="AM10" s="1">
+        <f t="shared" si="13"/>
+        <v>0.69018954384503228</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>58639</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>47838</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>47520</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>51025</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>58749</v>
       </c>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>9</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F11">
@@ -3190,28 +5265,89 @@
         <v>2537.0466000000001</v>
       </c>
       <c r="I11" s="2">
-        <f>$Q$3*E11^3 + $Q$4*E11^2 + $Q$5*E11 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>695.30751999999995</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.23023371915549817</v>
       </c>
       <c r="K11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.1204776485848843</v>
       </c>
       <c r="L11">
+        <f t="shared" si="7"/>
+        <v>0.22315484710831518</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="8"/>
+        <v>580.39761999999996</v>
+      </c>
+      <c r="AA11">
         <f t="shared" si="4"/>
-        <v>0.22315484710831518</v>
+        <v>-31</v>
+      </c>
+      <c r="AB11">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>47857</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>35762</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>35451</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>33949</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>33656</v>
+      </c>
+      <c r="AI11" s="1">
+        <f t="shared" si="9"/>
+        <v>0.95148816032765371</v>
+      </c>
+      <c r="AJ11" s="1">
+        <f t="shared" si="10"/>
+        <v>0.75472733412122239</v>
+      </c>
+      <c r="AK11" s="1">
+        <f t="shared" si="11"/>
+        <v>0.77447896185607545</v>
+      </c>
+      <c r="AL11" s="1">
+        <f t="shared" si="12"/>
+        <v>0.65431242170184056</v>
+      </c>
+      <c r="AM11" s="1">
+        <f t="shared" si="13"/>
+        <v>0.70102062070402005</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>59553</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>45273</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>52195</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>55972</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>60025</v>
       </c>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F12">
@@ -3224,28 +5360,89 @@
         <v>3168.7379999999998</v>
       </c>
       <c r="I12" s="2">
-        <f>$Q$3*E12^3 + $Q$4*E12^2 + $Q$5*E12 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>691.41985999999997</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.29169766038445344</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.4985730067254175E-2</v>
       </c>
       <c r="L12">
+        <f t="shared" si="7"/>
+        <v>0.38959121701448135</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="8"/>
+        <v>583.16599999999994</v>
+      </c>
+      <c r="AA12">
         <f t="shared" si="4"/>
-        <v>0.38959121701448135</v>
+        <v>-30</v>
+      </c>
+      <c r="AB12">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>46495</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>32972</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>32916</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>35068</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>35436</v>
+      </c>
+      <c r="AI12" s="1">
+        <f t="shared" si="9"/>
+        <v>0.92440901047776214</v>
+      </c>
+      <c r="AJ12" s="1">
+        <f t="shared" si="10"/>
+        <v>0.6958466993077832</v>
+      </c>
+      <c r="AK12" s="1">
+        <f t="shared" si="11"/>
+        <v>0.71909817800498099</v>
+      </c>
+      <c r="AL12" s="1">
+        <f t="shared" si="12"/>
+        <v>0.67587934855931386</v>
+      </c>
+      <c r="AM12" s="1">
+        <f t="shared" si="13"/>
+        <v>0.73809622995209334</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>58227</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>45551</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>52627</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>60765</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>56031</v>
       </c>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>11</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F13">
@@ -3258,28 +5455,89 @@
         <v>3353.0059000000001</v>
       </c>
       <c r="I13" s="2">
-        <f>$Q$3*E13^3 + $Q$4*E13^2 + $Q$5*E13 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>687.57303999999999</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.40927755883396311</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.662955043809951E-2</v>
       </c>
       <c r="L13">
+        <f t="shared" si="7"/>
+        <v>0.43814163319274896</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="8"/>
+        <v>585.95938000000001</v>
+      </c>
+      <c r="AA13">
         <f t="shared" si="4"/>
-        <v>0.43814163319274896</v>
+        <v>-29</v>
+      </c>
+      <c r="AB13">
+        <v>11</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>43350</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>34407</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>34949</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>34163</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>34575</v>
+      </c>
+      <c r="AI13" s="1">
+        <f t="shared" si="9"/>
+        <v>0.86188043024434857</v>
+      </c>
+      <c r="AJ13" s="1">
+        <f t="shared" si="10"/>
+        <v>0.7261311835218639</v>
+      </c>
+      <c r="AK13" s="1">
+        <f t="shared" si="11"/>
+        <v>0.76351203740114471</v>
+      </c>
+      <c r="AL13" s="1">
+        <f t="shared" si="12"/>
+        <v>0.65843692782114294</v>
+      </c>
+      <c r="AM13" s="1">
+        <f t="shared" si="13"/>
+        <v>0.72016246615288482</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>61118</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>48138</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>50995</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>59790</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>53287</v>
       </c>
     </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>12</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F14">
@@ -3292,23 +5550,84 @@
         <v>3048.6985</v>
       </c>
       <c r="I14" s="2">
-        <f>$Q$3*E14^3 + $Q$4*E14^2 + $Q$5*E14 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>683.76657999999998</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.54957191782626547</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.2463856705424545E-2</v>
       </c>
       <c r="L14">
+        <f t="shared" si="7"/>
+        <v>0.35796352883422239</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="8"/>
+        <v>588.77823999999998</v>
+      </c>
+      <c r="AA14">
         <f t="shared" si="4"/>
-        <v>0.35796352883422239</v>
+        <v>-28</v>
+      </c>
+      <c r="AB14">
+        <v>12</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>45673</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>34151</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>35631</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>35057</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>32461</v>
+      </c>
+      <c r="AI14" s="1">
+        <f t="shared" si="9"/>
+        <v>0.9080660874406028</v>
+      </c>
+      <c r="AJ14" s="1">
+        <f t="shared" si="10"/>
+        <v>0.72072851595475262</v>
+      </c>
+      <c r="AK14" s="1">
+        <f t="shared" si="11"/>
+        <v>0.77841132520644907</v>
+      </c>
+      <c r="AL14" s="1">
+        <f t="shared" si="12"/>
+        <v>0.67566734123542449</v>
+      </c>
+      <c r="AM14" s="1">
+        <f t="shared" si="13"/>
+        <v>0.67612997292230781</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>55518</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>46462</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>51557</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>55433</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>52258</v>
       </c>
     </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>13</v>
       </c>
@@ -3326,28 +5645,89 @@
         <v>3735.9879999999998</v>
       </c>
       <c r="I15" s="2">
-        <f>$Q$3*E15^3 + $Q$4*E15^2 + $Q$5*E15 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>680</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.65476627346713623</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.1316985161588473E-2</v>
       </c>
       <c r="L15">
+        <f t="shared" si="7"/>
+        <v>0.53904873824917399</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="8"/>
+        <v>591.62306000000001</v>
+      </c>
+      <c r="AA15">
         <f t="shared" si="4"/>
-        <v>0.53904873824917399</v>
+        <v>-27</v>
+      </c>
+      <c r="AB15">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>45824</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>34855</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>34442</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>34599</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>34543</v>
+      </c>
+      <c r="AI15" s="1">
+        <f t="shared" si="9"/>
+        <v>0.91106825456786689</v>
+      </c>
+      <c r="AJ15" s="1">
+        <f t="shared" si="10"/>
+        <v>0.73558585176430857</v>
+      </c>
+      <c r="AK15" s="1">
+        <f t="shared" si="11"/>
+        <v>0.75243588063092581</v>
+      </c>
+      <c r="AL15" s="1">
+        <f t="shared" si="12"/>
+        <v>0.66684012720439434</v>
+      </c>
+      <c r="AM15" s="1">
+        <f t="shared" si="13"/>
+        <v>0.71949593834617787</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>53321</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>47496</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>47742</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>56388</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>50923</v>
       </c>
     </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>14</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="F16">
@@ -3360,28 +5740,89 @@
         <v>4236.5277999999998</v>
       </c>
       <c r="I16" s="2">
-        <f>$Q$3*E16^3 + $Q$4*E16^2 + $Q$5*E16 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>676.27282000000002</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.52546007886192958</v>
       </c>
       <c r="K16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.12298197435585589</v>
       </c>
       <c r="L16">
+        <f t="shared" si="7"/>
+        <v>0.67092963342292267</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="8"/>
+        <v>594.49432000000002</v>
+      </c>
+      <c r="AA16">
         <f t="shared" si="4"/>
-        <v>0.67092963342292267</v>
+        <v>-26</v>
+      </c>
+      <c r="AB16">
+        <v>14</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>42665</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>33321</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>34969</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>33925</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>33555</v>
+      </c>
+      <c r="AI16" s="1">
+        <f t="shared" si="9"/>
+        <v>0.84826132771338247</v>
+      </c>
+      <c r="AJ16" s="1">
+        <f t="shared" si="10"/>
+        <v>0.70321205470200909</v>
+      </c>
+      <c r="AK16" s="1">
+        <f t="shared" si="11"/>
+        <v>0.76394896666229739</v>
+      </c>
+      <c r="AL16" s="1">
+        <f t="shared" si="12"/>
+        <v>0.65384986026790015</v>
+      </c>
+      <c r="AM16" s="1">
+        <f t="shared" si="13"/>
+        <v>0.69891689231410126</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>48899</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>44714</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>49304</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>53995</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>47836</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>15</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="F17">
@@ -3394,28 +5835,89 @@
         <v>4594.8008</v>
       </c>
       <c r="I17" s="2">
-        <f>$Q$3*E17^3 + $Q$4*E17^2 + $Q$5*E17 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>672.58456000000001</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.36853423972348776</v>
       </c>
       <c r="K17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.18964777506033104</v>
       </c>
       <c r="L17">
+        <f t="shared" si="7"/>
+        <v>0.76532645053234027</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="8"/>
+        <v>597.39250000000004</v>
+      </c>
+      <c r="AA17">
         <f t="shared" si="4"/>
-        <v>0.76532645053234027</v>
+        <v>-25</v>
+      </c>
+      <c r="AB17">
+        <v>15</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>40545</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>36242</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>33261</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>34700</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>32489</v>
+      </c>
+      <c r="AI17" s="1">
+        <f t="shared" si="9"/>
+        <v>0.80611169652265546</v>
+      </c>
+      <c r="AJ17" s="1">
+        <f t="shared" si="10"/>
+        <v>0.76485733580955595</v>
+      </c>
+      <c r="AK17" s="1">
+        <f t="shared" si="11"/>
+        <v>0.72663520775986368</v>
+      </c>
+      <c r="AL17" s="1">
+        <f t="shared" si="12"/>
+        <v>0.66878673990556037</v>
+      </c>
+      <c r="AM17" s="1">
+        <f t="shared" si="13"/>
+        <v>0.67671318475317643</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>49412</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>44030</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>44236</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>48546</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>45740</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>16</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="F18">
@@ -3428,28 +5930,89 @@
         <v>4953.8095999999996</v>
       </c>
       <c r="I18" s="2">
-        <f>$Q$3*E18^3 + $Q$4*E18^2 + $Q$5*E18 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>668.93474000000003</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.24819249275068445</v>
       </c>
       <c r="K18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.12444105917047643</v>
       </c>
       <c r="L18">
+        <f t="shared" si="7"/>
+        <v>0.85991713426868488</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="8"/>
+        <v>600.31808000000001</v>
+      </c>
+      <c r="AA18">
         <f t="shared" si="4"/>
-        <v>0.85991713426868488</v>
+        <v>-24</v>
+      </c>
+      <c r="AB18">
+        <v>16</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>41491</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>34460</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>35395</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>33924</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>34471</v>
+      </c>
+      <c r="AI18" s="1">
+        <f t="shared" si="9"/>
+        <v>0.82491997534644212</v>
+      </c>
+      <c r="AJ18" s="1">
+        <f t="shared" si="10"/>
+        <v>0.72724970454161741</v>
+      </c>
+      <c r="AK18" s="1">
+        <f t="shared" si="11"/>
+        <v>0.77325555992484818</v>
+      </c>
+      <c r="AL18" s="1">
+        <f t="shared" si="12"/>
+        <v>0.65383058687481932</v>
+      </c>
+      <c r="AM18" s="1">
+        <f t="shared" si="13"/>
+        <v>0.71799625078108731</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>47171</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>45826</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>47142</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>48824</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>47878</v>
       </c>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>17</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="F19">
@@ -3462,28 +6025,89 @@
         <v>4564.2606999999998</v>
       </c>
       <c r="I19" s="2">
-        <f>$Q$3*E19^3 + $Q$4*E19^2 + $Q$5*E19 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>665.32288000000005</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.23171238033649633</v>
       </c>
       <c r="K19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.15170569433551118</v>
       </c>
       <c r="L19">
+        <f t="shared" si="7"/>
+        <v>0.75727982621456214</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="8"/>
+        <v>603.27153999999996</v>
+      </c>
+      <c r="AA19">
         <f t="shared" si="4"/>
-        <v>0.75727982621456214</v>
+        <v>-23</v>
+      </c>
+      <c r="AB19">
+        <v>17</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>42870</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>36330</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>36968</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>35980</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>33591</v>
+      </c>
+      <c r="AI19" s="1">
+        <f t="shared" si="9"/>
+        <v>0.85233711752191976</v>
+      </c>
+      <c r="AJ19" s="1">
+        <f t="shared" si="10"/>
+        <v>0.76671450278575048</v>
+      </c>
+      <c r="AK19" s="1">
+        <f t="shared" si="11"/>
+        <v>0.80762004631450168</v>
+      </c>
+      <c r="AL19" s="1">
+        <f t="shared" si="12"/>
+        <v>0.69345668304905084</v>
+      </c>
+      <c r="AM19" s="1">
+        <f t="shared" si="13"/>
+        <v>0.69966673609664654</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>47836</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>44019</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>43733</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>49158</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>46539</v>
       </c>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>18</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
       <c r="F20">
@@ -3496,28 +6120,89 @@
         <v>4111.2700000000004</v>
       </c>
       <c r="I20" s="2">
-        <f>$Q$3*E20^3 + $Q$4*E20^2 + $Q$5*E20 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>661.74850000000004</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.13334098120226179</v>
       </c>
       <c r="K20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.2079910411380872</v>
       </c>
       <c r="L20">
+        <f t="shared" si="7"/>
+        <v>0.63792704143824075</v>
+      </c>
+      <c r="Z20" s="2">
+        <f t="shared" si="8"/>
+        <v>606.25336000000004</v>
+      </c>
+      <c r="AA20">
         <f t="shared" si="4"/>
-        <v>0.63792704143824075</v>
+        <v>-22</v>
+      </c>
+      <c r="AB20">
+        <v>18</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>38888</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>34214</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>34914</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>34437</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>33700</v>
+      </c>
+      <c r="AI20" s="1">
+        <f t="shared" si="9"/>
+        <v>0.77316738572877108</v>
+      </c>
+      <c r="AJ20" s="1">
+        <f t="shared" si="10"/>
+        <v>0.72205807867634642</v>
+      </c>
+      <c r="AK20" s="1">
+        <f t="shared" si="11"/>
+        <v>0.7627474111941277</v>
+      </c>
+      <c r="AL20" s="1">
+        <f t="shared" si="12"/>
+        <v>0.66371783752529634</v>
+      </c>
+      <c r="AM20" s="1">
+        <f t="shared" si="13"/>
+        <v>0.70193709643824198</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>44594</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>44550</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>44667</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>47507</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>45158</v>
       </c>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>19</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6</v>
       </c>
       <c r="F21">
@@ -3530,28 +6215,89 @@
         <v>3826.4971</v>
       </c>
       <c r="I21" s="2">
-        <f>$Q$3*E21^3 + $Q$4*E21^2 + $Q$5*E21 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>658.21112000000005</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7.7892833648206261E-2</v>
       </c>
       <c r="K21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.7025308157827599E-2</v>
       </c>
       <c r="L21">
+        <f t="shared" si="7"/>
+        <v>0.5628958351820661</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" si="8"/>
+        <v>609.26401999999996</v>
+      </c>
+      <c r="AA21">
         <f t="shared" si="4"/>
-        <v>0.5628958351820661</v>
+        <v>-21</v>
+      </c>
+      <c r="AB21">
+        <v>19</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>39740</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>33110</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>35096</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>33419</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>33338</v>
+      </c>
+      <c r="AI21" s="1">
+        <f t="shared" si="9"/>
+        <v>0.79010676581108219</v>
+      </c>
+      <c r="AJ21" s="1">
+        <f t="shared" si="10"/>
+        <v>0.69875907479317911</v>
+      </c>
+      <c r="AK21" s="1">
+        <f t="shared" si="11"/>
+        <v>0.76672346747061648</v>
+      </c>
+      <c r="AL21" s="1">
+        <f t="shared" si="12"/>
+        <v>0.64409752336898907</v>
+      </c>
+      <c r="AM21" s="1">
+        <f t="shared" si="13"/>
+        <v>0.69439700062486986</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>43296</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>43963</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>44238</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>43173</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>41198</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>20</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-7</v>
       </c>
       <c r="F22">
@@ -3564,28 +6310,89 @@
         <v>3622.2379999999998</v>
       </c>
       <c r="I22" s="2">
-        <f>$Q$3*E22^3 + $Q$4*E22^2 + $Q$5*E22 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>654.71025999999995</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.2323073385184242E-2</v>
       </c>
       <c r="K22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.3410040720949876E-2</v>
       </c>
       <c r="L22">
+        <f t="shared" si="7"/>
+        <v>0.50907819080017225</v>
+      </c>
+      <c r="Z22" s="2">
+        <f t="shared" si="8"/>
+        <v>612.30399999999997</v>
+      </c>
+      <c r="AA22">
         <f t="shared" si="4"/>
-        <v>0.50907819080017225</v>
+        <v>-20</v>
+      </c>
+      <c r="AB22">
+        <v>20</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>39381</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>34834</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>35285</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>33757</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>32566</v>
+      </c>
+      <c r="AI22" s="1">
+        <f t="shared" si="9"/>
+        <v>0.7829691631707657</v>
+      </c>
+      <c r="AJ22" s="1">
+        <f t="shared" si="10"/>
+        <v>0.73514266419044405</v>
+      </c>
+      <c r="AK22" s="1">
+        <f t="shared" si="11"/>
+        <v>0.7708524489885088</v>
+      </c>
+      <c r="AL22" s="1">
+        <f t="shared" si="12"/>
+        <v>0.65061193023031705</v>
+      </c>
+      <c r="AM22" s="1">
+        <f t="shared" si="13"/>
+        <v>0.67831701728806504</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>43616</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>44085</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>40097</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>43083</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>43098</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>21</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8</v>
       </c>
       <c r="F23">
@@ -3598,28 +6405,89 @@
         <v>3025.0972000000002</v>
       </c>
       <c r="I23" s="2">
-        <f>$Q$3*E23^3 + $Q$4*E23^2 + $Q$5*E23 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>651.24544000000003</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.8617892725095202E-3</v>
       </c>
       <c r="K23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.826637706642638E-2</v>
       </c>
       <c r="L23">
+        <f t="shared" si="7"/>
+        <v>0.35174512108470041</v>
+      </c>
+      <c r="Z23" s="2">
+        <f t="shared" si="8"/>
+        <v>615.37378000000001</v>
+      </c>
+      <c r="AA23">
         <f t="shared" si="4"/>
-        <v>0.35174512108470041</v>
+        <v>-19</v>
+      </c>
+      <c r="AB23">
+        <v>21</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>36935</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>33903</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>34807</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>35868</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>34044</v>
+      </c>
+      <c r="AI23" s="1">
+        <f t="shared" si="9"/>
+        <v>0.73433803208938908</v>
+      </c>
+      <c r="AJ23" s="1">
+        <f t="shared" si="10"/>
+        <v>0.71549468174911357</v>
+      </c>
+      <c r="AK23" s="1">
+        <f t="shared" si="11"/>
+        <v>0.76040983964696118</v>
+      </c>
+      <c r="AL23" s="1">
+        <f t="shared" si="12"/>
+        <v>0.69129806302399532</v>
+      </c>
+      <c r="AM23" s="1">
+        <f t="shared" si="13"/>
+        <v>0.70910227036034157</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>41247</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>39992</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>43417</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>43430</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>42342</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>22</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9</v>
       </c>
       <c r="F24">
@@ -3632,28 +6500,89 @@
         <v>2517.7856000000002</v>
       </c>
       <c r="I24" s="2">
-        <f>$Q$3*E24^3 + $Q$4*E24^2 + $Q$5*E24 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>647.81618000000003</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.668871164007049E-3</v>
       </c>
       <c r="K24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.5713457642645108E-2</v>
       </c>
       <c r="L24">
+        <f t="shared" si="7"/>
+        <v>0.21808001005851102</v>
+      </c>
+      <c r="Z24" s="2">
+        <f t="shared" si="8"/>
+        <v>618.47384</v>
+      </c>
+      <c r="AA24">
         <f t="shared" si="4"/>
-        <v>0.21808001005851102</v>
+        <v>-18</v>
+      </c>
+      <c r="AB24">
+        <v>22</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>37098</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>37936</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>33774</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>33765</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>36429</v>
+      </c>
+      <c r="AI24" s="1">
+        <f t="shared" si="9"/>
+        <v>0.73757878203471383</v>
+      </c>
+      <c r="AJ24" s="1">
+        <f t="shared" si="10"/>
+        <v>0.80060780010130006</v>
+      </c>
+      <c r="AK24" s="1">
+        <f t="shared" si="11"/>
+        <v>0.73784244330842841</v>
+      </c>
+      <c r="AL24" s="1">
+        <f t="shared" si="12"/>
+        <v>0.65076611737496382</v>
+      </c>
+      <c r="AM24" s="1">
+        <f t="shared" si="13"/>
+        <v>0.75877942095396789</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>41285</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>42935</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>42035</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>42056</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>42187</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>23</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
       <c r="F25">
@@ -3666,28 +6595,89 @@
         <v>2261.4504000000002</v>
       </c>
       <c r="I25" s="2">
-        <f>$Q$3*E25^3 + $Q$4*E25^2 + $Q$5*E25 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>644.42200000000003</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.2858601618256711E-2</v>
       </c>
       <c r="K25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-5.0077161973854256E-2</v>
       </c>
       <c r="L25">
+        <f t="shared" si="7"/>
+        <v>0.1505414933600549</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="8"/>
+        <v>621.60465999999997</v>
+      </c>
+      <c r="AA25">
         <f t="shared" si="4"/>
-        <v>0.1505414933600549</v>
+        <v>-17</v>
+      </c>
+      <c r="AB25">
+        <v>23</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>38576</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>34008</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>35954</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>35787</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>34380</v>
+      </c>
+      <c r="AI25" s="1">
+        <f t="shared" si="9"/>
+        <v>0.76696423245919243</v>
+      </c>
+      <c r="AJ25" s="1">
+        <f t="shared" si="10"/>
+        <v>0.71771061961843663</v>
+      </c>
+      <c r="AK25" s="1">
+        <f t="shared" si="11"/>
+        <v>0.7854677327740639</v>
+      </c>
+      <c r="AL25" s="1">
+        <f t="shared" si="12"/>
+        <v>0.68973691818444638</v>
+      </c>
+      <c r="AM25" s="1">
+        <f t="shared" si="13"/>
+        <v>0.71610081233076439</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>40779</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>42742</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>39422</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>43147</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>42366</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>24</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-11</v>
       </c>
       <c r="F26">
@@ -3700,28 +6690,89 @@
         <v>1985.5872999999999</v>
       </c>
       <c r="I26" s="2">
-        <f>$Q$3*E26^3 + $Q$4*E26^2 + $Q$5*E26 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>641.06241999999997</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.9674911118553988E-2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.5587737848899255E-2</v>
       </c>
       <c r="L26">
+        <f t="shared" si="7"/>
+        <v>7.7857817509692284E-2</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" si="8"/>
+        <v>624.76671999999996</v>
+      </c>
+      <c r="AA26">
         <f t="shared" si="4"/>
-        <v>7.7857817509692284E-2</v>
+        <v>-16</v>
+      </c>
+      <c r="AB26">
+        <v>24</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>35699</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>34607</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>35204</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>34420</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>35469</v>
+      </c>
+      <c r="AI26" s="1">
+        <f t="shared" si="9"/>
+        <v>0.70976400182913491</v>
+      </c>
+      <c r="AJ26" s="1">
+        <f t="shared" si="10"/>
+        <v>0.73035201755866963</v>
+      </c>
+      <c r="AK26" s="1">
+        <f t="shared" si="11"/>
+        <v>0.76908288548084069</v>
+      </c>
+      <c r="AL26" s="1">
+        <f t="shared" si="12"/>
+        <v>0.66339018984292186</v>
+      </c>
+      <c r="AM26" s="1">
+        <f t="shared" si="13"/>
+        <v>0.73878358675275979</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>41206</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>42448</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>42036</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>43912</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>41275</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>25</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-12</v>
       </c>
       <c r="F27">
@@ -3734,28 +6785,89 @@
         <v>1948.5148999999999</v>
       </c>
       <c r="I27" s="2">
-        <f>$Q$3*E27^3 + $Q$4*E27^2 + $Q$5*E27 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>637.73695999999995</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.0355566886252183E-2</v>
       </c>
       <c r="K27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0223535229344325E-2</v>
       </c>
       <c r="L27">
+        <f t="shared" si="7"/>
+        <v>6.8090080162453825E-2</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" si="8"/>
+        <v>627.96050000000002</v>
+      </c>
+      <c r="AA27">
         <f t="shared" si="4"/>
-        <v>6.8090080162453825E-2</v>
+        <v>-15</v>
+      </c>
+      <c r="AB27">
+        <v>25</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>35161</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>35716</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>35037</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>35460</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>34635</v>
+      </c>
+      <c r="AI27" s="1">
+        <f t="shared" si="9"/>
+        <v>0.69906753881941264</v>
+      </c>
+      <c r="AJ27" s="1">
+        <f t="shared" si="10"/>
+        <v>0.75375654229275701</v>
+      </c>
+      <c r="AK27" s="1">
+        <f t="shared" si="11"/>
+        <v>0.76543452615021623</v>
+      </c>
+      <c r="AL27" s="1">
+        <f t="shared" si="12"/>
+        <v>0.68343451864700777</v>
+      </c>
+      <c r="AM27" s="1">
+        <f t="shared" si="13"/>
+        <v>0.72141220579046028</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>42162</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>41462</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>40307</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>41512</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>38730</v>
       </c>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>26</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-13</v>
       </c>
       <c r="F28">
@@ -3768,28 +6880,89 @@
         <v>2167.4187000000002</v>
       </c>
       <c r="I28" s="2">
-        <f>$Q$3*E28^3 + $Q$4*E28^2 + $Q$5*E28 + $Q$6</f>
+        <f t="shared" si="3"/>
         <v>634.44514000000004</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.6720475414296951E-2</v>
       </c>
       <c r="K28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0010347282104703E-2</v>
       </c>
       <c r="L28">
+        <f t="shared" si="7"/>
+        <v>0.12576627114853572</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" si="8"/>
+        <v>631.18647999999996</v>
+      </c>
+      <c r="AA28">
         <f t="shared" si="4"/>
-        <v>0.12576627114853572</v>
+        <v>-14</v>
+      </c>
+      <c r="AB28">
+        <v>26</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>36575</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>35555</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>34480</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>34212</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>35397</v>
+      </c>
+      <c r="AI28" s="1">
+        <f t="shared" si="9"/>
+        <v>0.72718054754756745</v>
+      </c>
+      <c r="AJ28" s="1">
+        <f t="shared" si="10"/>
+        <v>0.75035877089312852</v>
+      </c>
+      <c r="AK28" s="1">
+        <f t="shared" si="11"/>
+        <v>0.75326604622711579</v>
+      </c>
+      <c r="AL28" s="1">
+        <f t="shared" si="12"/>
+        <v>0.6593813240821047</v>
+      </c>
+      <c r="AM28" s="1">
+        <f t="shared" si="13"/>
+        <v>0.73728389918766923</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>40464</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>42650</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>41050</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>42769</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>43398</v>
       </c>
     </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>27</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14</v>
       </c>
       <c r="F29">
@@ -3802,28 +6975,89 @@
         <v>1981.4484</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" ref="I29:I58" si="5">$Q$3*E29^3 + $Q$4*E29^2 + $Q$5*E29 + $Q$6</f>
+        <f t="shared" ref="I29:I58" si="14">$Q$3*E29^3 + $Q$4*E29^2 + $Q$5*E29 + $Q$6</f>
         <v>631.18647999999996</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.1475247568578326E-2</v>
       </c>
       <c r="K29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.4352966048731504E-2</v>
       </c>
       <c r="L29">
+        <f t="shared" si="7"/>
+        <v>7.6767311146293038E-2</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="8"/>
+        <v>634.44514000000004</v>
+      </c>
+      <c r="AA29">
         <f t="shared" si="4"/>
-        <v>7.6767311146293038E-2</v>
+        <v>-13</v>
+      </c>
+      <c r="AB29">
+        <v>27</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>35903</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>32958</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>33636</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>34517</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>32719</v>
+      </c>
+      <c r="AI29" s="1">
+        <f t="shared" si="9"/>
+        <v>0.71381990973616716</v>
+      </c>
+      <c r="AJ29" s="1">
+        <f t="shared" si="10"/>
+        <v>0.69555124092520682</v>
+      </c>
+      <c r="AK29" s="1">
+        <f t="shared" si="11"/>
+        <v>0.73482763140647533</v>
+      </c>
+      <c r="AL29" s="1">
+        <f t="shared" si="12"/>
+        <v>0.66525970897176445</v>
+      </c>
+      <c r="AM29" s="1">
+        <f t="shared" si="13"/>
+        <v>0.68150385336388253</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>40537</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>42530</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>42434</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>43834</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>41447</v>
       </c>
     </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>28</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-15</v>
       </c>
       <c r="F30">
@@ -3836,28 +7070,89 @@
         <v>1902.3334</v>
       </c>
       <c r="I30" s="2">
+        <f t="shared" si="14"/>
+        <v>627.96050000000002</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="5"/>
-        <v>627.96050000000002</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="2"/>
         <v>4.157298290706557E-2</v>
       </c>
       <c r="K30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.3854617630090909E-2</v>
       </c>
       <c r="L30">
+        <f t="shared" si="7"/>
+        <v>5.5922301375499306E-2</v>
+      </c>
+      <c r="Z30" s="2">
+        <f t="shared" si="8"/>
+        <v>637.73695999999995</v>
+      </c>
+      <c r="AA30">
         <f t="shared" si="4"/>
-        <v>5.5922301375499306E-2</v>
+        <v>-12</v>
+      </c>
+      <c r="AB30">
+        <v>28</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>37241</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>35978</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>33654</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>35244</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>37325</v>
+      </c>
+      <c r="AI30" s="1">
+        <f t="shared" si="9"/>
+        <v>0.7404218939499374</v>
+      </c>
+      <c r="AJ30" s="1">
+        <f t="shared" si="10"/>
+        <v>0.75928583488097245</v>
+      </c>
+      <c r="AK30" s="1">
+        <f t="shared" si="11"/>
+        <v>0.73522086774151263</v>
+      </c>
+      <c r="AL30" s="1">
+        <f t="shared" si="12"/>
+        <v>0.67927146574154385</v>
+      </c>
+      <c r="AM30" s="1">
+        <f t="shared" si="13"/>
+        <v>0.77744219954176208</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>43216</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>43663</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>39972</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>40822</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>42476</v>
       </c>
     </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>29</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-16</v>
       </c>
       <c r="F31">
@@ -3870,28 +7165,89 @@
         <v>1884.7141999999999</v>
       </c>
       <c r="I31" s="2">
+        <f t="shared" si="14"/>
+        <v>624.76671999999996</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="5"/>
-        <v>624.76671999999996</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="2"/>
         <v>1.0127410264360481E-2</v>
       </c>
       <c r="K31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.4735892421991248E-2</v>
       </c>
       <c r="L31">
+        <f t="shared" si="7"/>
+        <v>5.1280041422853528E-2</v>
+      </c>
+      <c r="Z31" s="2">
+        <f t="shared" si="8"/>
+        <v>641.06241999999997</v>
+      </c>
+      <c r="AA31">
         <f t="shared" si="4"/>
-        <v>5.1280041422853528E-2</v>
+        <v>-11</v>
+      </c>
+      <c r="AB31">
+        <v>29</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>37791</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>36003</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>35771</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>36461</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>36130</v>
+      </c>
+      <c r="AI31" s="1">
+        <f t="shared" si="9"/>
+        <v>0.75135693977772033</v>
+      </c>
+      <c r="AJ31" s="1">
+        <f t="shared" si="10"/>
+        <v>0.7598134391355732</v>
+      </c>
+      <c r="AK31" s="1">
+        <f t="shared" si="11"/>
+        <v>0.78146983003451742</v>
+      </c>
+      <c r="AL31" s="1">
+        <f t="shared" si="12"/>
+        <v>0.70272718512094057</v>
+      </c>
+      <c r="AM31" s="1">
+        <f t="shared" si="13"/>
+        <v>0.75255155176004995</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>40752</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>43633</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>42732</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>42626</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>43395</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>30</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-17</v>
       </c>
       <c r="F32">
@@ -3904,28 +7260,79 @@
         <v>1643.0456999999999</v>
       </c>
       <c r="I32" s="2">
+        <f t="shared" si="14"/>
+        <v>621.60465999999997</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="5"/>
-        <v>621.60465999999997</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="2"/>
         <v>-3.2313598740030314E-2</v>
       </c>
       <c r="K32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.7452072944860961E-2</v>
       </c>
       <c r="L32">
+        <f t="shared" si="7"/>
+        <v>-1.2394132169929795E-2</v>
+      </c>
+      <c r="Z32" s="2">
+        <f t="shared" si="8"/>
+        <v>644.42200000000003</v>
+      </c>
+      <c r="AA32">
         <f t="shared" si="4"/>
-        <v>-1.2394132169929795E-2</v>
-      </c>
+        <v>-10</v>
+      </c>
+      <c r="AB32">
+        <v>30</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>37316</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>35654</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>34911</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>34646</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>36133</v>
+      </c>
+      <c r="AI32" s="1">
+        <f t="shared" si="9"/>
+        <v>0.74191303656281682</v>
+      </c>
+      <c r="AJ32" s="1">
+        <f t="shared" si="10"/>
+        <v>0.75244808374134731</v>
+      </c>
+      <c r="AK32" s="1">
+        <f t="shared" si="11"/>
+        <v>0.76268187180495473</v>
+      </c>
+      <c r="AL32" s="1">
+        <f t="shared" si="12"/>
+        <v>0.66774597667919433</v>
+      </c>
+      <c r="AM32" s="1">
+        <f t="shared" si="13"/>
+        <v>0.75261403874192878</v>
+      </c>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
     </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>31</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-18</v>
       </c>
       <c r="F33">
@@ -3938,28 +7345,79 @@
         <v>1721.7619999999999</v>
       </c>
       <c r="I33" s="2">
+        <f t="shared" si="14"/>
+        <v>618.47384</v>
+      </c>
+      <c r="J33">
         <f t="shared" si="5"/>
-        <v>618.47384</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="2"/>
         <v>-3.6354366272708327E-2</v>
       </c>
       <c r="K33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.5329657578525122E-2</v>
       </c>
       <c r="L33">
+        <f t="shared" si="7"/>
+        <v>8.3458291853217847E-3</v>
+      </c>
+      <c r="Z33" s="2">
+        <f t="shared" si="8"/>
+        <v>647.81618000000003</v>
+      </c>
+      <c r="AA33">
         <f t="shared" si="4"/>
-        <v>8.3458291853217847E-3</v>
-      </c>
+        <v>-9</v>
+      </c>
+      <c r="AB33">
+        <v>31</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>37986</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>37137</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>36250</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>36639</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>35130</v>
+      </c>
+      <c r="AI33" s="1">
+        <f t="shared" si="9"/>
+        <v>0.75523391057120703</v>
+      </c>
+      <c r="AJ33" s="1">
+        <f t="shared" si="10"/>
+        <v>0.78374556812426133</v>
+      </c>
+      <c r="AK33" s="1">
+        <f t="shared" si="11"/>
+        <v>0.79193428583912262</v>
+      </c>
+      <c r="AL33" s="1">
+        <f t="shared" si="12"/>
+        <v>0.70615784908933221</v>
+      </c>
+      <c r="AM33" s="1">
+        <f t="shared" si="13"/>
+        <v>0.73172255780045825</v>
+      </c>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>32</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-19</v>
       </c>
       <c r="F34">
@@ -3972,28 +7430,79 @@
         <v>1822.4127000000001</v>
       </c>
       <c r="I34" s="2">
+        <f t="shared" si="14"/>
+        <v>615.37378000000001</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="5"/>
-        <v>615.37378000000001</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="2"/>
         <v>1.4107551661055984E-2</v>
       </c>
       <c r="K34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-4.0483240627952943E-2</v>
       </c>
       <c r="L34">
+        <f t="shared" si="7"/>
+        <v>3.486500791169761E-2</v>
+      </c>
+      <c r="Z34" s="2">
+        <f t="shared" si="8"/>
+        <v>651.24544000000003</v>
+      </c>
+      <c r="AA34">
         <f t="shared" si="4"/>
-        <v>3.486500791169761E-2</v>
-      </c>
+        <v>-8</v>
+      </c>
+      <c r="AB34">
+        <v>32</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>42021</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>36413</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>36698</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>36752</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>36097</v>
+      </c>
+      <c r="AI34" s="1">
+        <f t="shared" si="9"/>
+        <v>0.83545738314412388</v>
+      </c>
+      <c r="AJ34" s="1">
+        <f t="shared" si="10"/>
+        <v>0.76846614891102483</v>
+      </c>
+      <c r="AK34" s="1">
+        <f t="shared" si="11"/>
+        <v>0.80172150128894137</v>
+      </c>
+      <c r="AL34" s="1">
+        <f t="shared" si="12"/>
+        <v>0.70833574250746845</v>
+      </c>
+      <c r="AM34" s="1">
+        <f t="shared" si="13"/>
+        <v>0.7518641949593835</v>
+      </c>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
     </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>33</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-20</v>
       </c>
       <c r="F35">
@@ -4006,28 +7515,79 @@
         <v>2074.4456</v>
       </c>
       <c r="I35" s="2">
+        <f t="shared" si="14"/>
+        <v>612.30399999999997</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="5"/>
-        <v>612.30399999999997</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="2"/>
         <v>-1.6691869152515693E-2</v>
       </c>
       <c r="K35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.1288822595648034E-2</v>
       </c>
       <c r="L35">
+        <f t="shared" si="7"/>
+        <v>0.10126996604936395</v>
+      </c>
+      <c r="Z35" s="2">
+        <f t="shared" si="8"/>
+        <v>654.71025999999995</v>
+      </c>
+      <c r="AA35">
         <f t="shared" si="4"/>
-        <v>0.10126996604936395</v>
-      </c>
+        <v>-7</v>
+      </c>
+      <c r="AB35">
+        <v>33</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>42321</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>37922</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>37412</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>39706</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>41541</v>
+      </c>
+      <c r="AI35" s="1">
+        <f t="shared" si="9"/>
+        <v>0.84142195359564187</v>
+      </c>
+      <c r="AJ35" s="1">
+        <f t="shared" si="10"/>
+        <v>0.80031234171872367</v>
+      </c>
+      <c r="AK35" s="1">
+        <f t="shared" si="11"/>
+        <v>0.81731987591208988</v>
+      </c>
+      <c r="AL35" s="1">
+        <f t="shared" si="12"/>
+        <v>0.76526934566830496</v>
+      </c>
+      <c r="AM35" s="1">
+        <f t="shared" si="13"/>
+        <v>0.865257238075401</v>
+      </c>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
     </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>34</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-21</v>
       </c>
       <c r="F36">
@@ -4040,28 +7600,79 @@
         <v>2081.8571999999999</v>
       </c>
       <c r="I36" s="2">
+        <f t="shared" si="14"/>
+        <v>609.26401999999996</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="5"/>
-        <v>609.26401999999996</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="2"/>
         <v>1.7336176640267598E-2</v>
       </c>
       <c r="K36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.22406998295406988</v>
       </c>
       <c r="L36">
+        <f t="shared" si="7"/>
+        <v>0.10322275470407177</v>
+      </c>
+      <c r="Z36" s="2">
+        <f t="shared" si="8"/>
+        <v>658.21112000000005</v>
+      </c>
+      <c r="AA36">
         <f t="shared" si="4"/>
-        <v>0.10322275470407177</v>
-      </c>
+        <v>-6</v>
+      </c>
+      <c r="AB36">
+        <v>34</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>46815</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>41280</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>38663</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>42611</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>45711</v>
+      </c>
+      <c r="AI36" s="1">
+        <f t="shared" si="9"/>
+        <v>0.93077121895938131</v>
+      </c>
+      <c r="AJ36" s="1">
+        <f t="shared" si="10"/>
+        <v>0.87118014519669085</v>
+      </c>
+      <c r="AK36" s="1">
+        <f t="shared" si="11"/>
+        <v>0.84464980119718613</v>
+      </c>
+      <c r="AL36" s="1">
+        <f t="shared" si="12"/>
+        <v>0.82125855256817959</v>
+      </c>
+      <c r="AM36" s="1">
+        <f t="shared" si="13"/>
+        <v>0.95211414288689855</v>
+      </c>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
     </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>35</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-22</v>
       </c>
       <c r="F37">
@@ -4074,28 +7685,79 @@
         <v>1695.1320000000001</v>
       </c>
       <c r="I37" s="2">
+        <f t="shared" si="14"/>
+        <v>606.25336000000004</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="5"/>
-        <v>606.25336000000004</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="2"/>
         <v>3.6296085085053609E-2</v>
       </c>
       <c r="K37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.20186050308152559</v>
       </c>
       <c r="L37">
+        <f t="shared" si="7"/>
+        <v>1.329427615502754E-3</v>
+      </c>
+      <c r="Z37" s="2">
+        <f t="shared" si="8"/>
+        <v>661.74850000000004</v>
+      </c>
+      <c r="AA37">
         <f t="shared" si="4"/>
-        <v>1.329427615502754E-3</v>
-      </c>
+        <v>-5</v>
+      </c>
+      <c r="AB37">
+        <v>35</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>49159</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>43877</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>45774</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>45545</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>48010</v>
+      </c>
+      <c r="AI37" s="1">
+        <f t="shared" si="9"/>
+        <v>0.97737439608724175</v>
+      </c>
+      <c r="AJ37" s="1">
+        <f t="shared" si="10"/>
+        <v>0.92598767516461256</v>
+      </c>
+      <c r="AK37" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AL37" s="1">
+        <f t="shared" si="12"/>
+        <v>0.87780668786739902</v>
+      </c>
+      <c r="AM37" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
     </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>36</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-23</v>
       </c>
       <c r="F38">
@@ -4108,28 +7770,79 @@
         <v>1809.3413</v>
       </c>
       <c r="I38" s="2">
+        <f t="shared" si="14"/>
+        <v>603.27153999999996</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="5"/>
-        <v>603.27153999999996</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="2"/>
         <v>1.113507935199709E-3</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.27802848232204047</v>
       </c>
       <c r="L38">
+        <f t="shared" si="7"/>
+        <v>3.1420990206863508E-2</v>
+      </c>
+      <c r="Z38" s="2">
+        <f t="shared" si="8"/>
+        <v>665.32288000000005</v>
+      </c>
+      <c r="AA38">
         <f t="shared" si="4"/>
-        <v>3.1420990206863508E-2</v>
-      </c>
+        <v>-4</v>
+      </c>
+      <c r="AB38">
+        <v>36</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>47177</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>47384</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>44192</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>48183</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>46432</v>
+      </c>
+      <c r="AI38" s="1">
+        <f t="shared" si="9"/>
+        <v>0.93796846730421302</v>
+      </c>
+      <c r="AJ38" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AK38" s="1">
+        <f t="shared" si="11"/>
+        <v>0.96543889544282779</v>
+      </c>
+      <c r="AL38" s="1">
+        <f t="shared" si="12"/>
+        <v>0.92864989881468629</v>
+      </c>
+      <c r="AM38" s="1">
+        <f t="shared" si="13"/>
+        <v>0.96713184753176418</v>
+      </c>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>37</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-24</v>
       </c>
       <c r="F39">
@@ -4142,28 +7855,79 @@
         <v>1823.0358000000001</v>
       </c>
       <c r="I39" s="2">
+        <f t="shared" si="14"/>
+        <v>600.31808000000001</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="5"/>
-        <v>600.31808000000001</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="2"/>
         <v>-3.008658286963084E-2</v>
       </c>
       <c r="K39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.32385965426292629</v>
       </c>
       <c r="L39">
+        <f t="shared" si="7"/>
+        <v>3.502918064238314E-2</v>
+      </c>
+      <c r="Z39" s="2">
+        <f t="shared" si="8"/>
+        <v>668.93474000000003</v>
+      </c>
+      <c r="AA39">
         <f t="shared" si="4"/>
-        <v>3.502918064238314E-2</v>
-      </c>
+        <v>-3</v>
+      </c>
+      <c r="AB39">
+        <v>37</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>50297</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>47238</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>43254</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>51885</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>42952</v>
+      </c>
+      <c r="AI39" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="1">
+        <f t="shared" si="10"/>
+        <v>0.99691879115313187</v>
+      </c>
+      <c r="AK39" s="1">
+        <f t="shared" si="11"/>
+        <v>0.94494691309476997</v>
+      </c>
+      <c r="AL39" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AM39" s="1">
+        <f t="shared" si="13"/>
+        <v>0.89464694855238491</v>
+      </c>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>38</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="F40">
@@ -4176,28 +7940,79 @@
         <v>1758.1804999999999</v>
       </c>
       <c r="I40" s="2">
+        <f t="shared" si="14"/>
+        <v>597.39250000000004</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="5"/>
-        <v>597.39250000000004</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="2"/>
         <v>1.7196085738477418E-2</v>
       </c>
       <c r="K40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.38125929943272274</v>
       </c>
       <c r="L40">
+        <f t="shared" si="7"/>
+        <v>1.7941278699796281E-2</v>
+      </c>
+      <c r="Z40" s="2">
+        <f t="shared" si="8"/>
+        <v>672.58456000000001</v>
+      </c>
+      <c r="AA40">
         <f t="shared" si="4"/>
-        <v>1.7941278699796281E-2</v>
-      </c>
+        <v>-2</v>
+      </c>
+      <c r="AB40">
+        <v>38</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>48180</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>44145</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>43899</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>47136</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>44735</v>
+      </c>
+      <c r="AI40" s="1">
+        <f t="shared" si="9"/>
+        <v>0.9579100145137881</v>
+      </c>
+      <c r="AJ40" s="1">
+        <f t="shared" si="10"/>
+        <v>0.93164359277393216</v>
+      </c>
+      <c r="AK40" s="1">
+        <f t="shared" si="11"/>
+        <v>0.95903788176694194</v>
+      </c>
+      <c r="AL40" s="1">
+        <f t="shared" si="12"/>
+        <v>0.90847065625903445</v>
+      </c>
+      <c r="AM40" s="1">
+        <f t="shared" si="13"/>
+        <v>0.93178504478233704</v>
+      </c>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>39</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-26</v>
       </c>
       <c r="F41">
@@ -4210,28 +8025,79 @@
         <v>1820.6814999999999</v>
       </c>
       <c r="I41" s="2">
+        <f t="shared" si="14"/>
+        <v>594.49432000000002</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="5"/>
-        <v>594.49432000000002</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="2"/>
         <v>9.2961919514628066E-3</v>
       </c>
       <c r="K41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.4500956528135901</v>
       </c>
       <c r="L41">
+        <f t="shared" si="7"/>
+        <v>3.4408875940324324E-2</v>
+      </c>
+      <c r="Z41" s="2">
+        <f t="shared" si="8"/>
+        <v>676.27282000000002</v>
+      </c>
+      <c r="AA41">
         <f t="shared" si="4"/>
-        <v>3.4408875940324324E-2</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="AB41">
+        <v>39</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>46842</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>45446</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>45578</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>47819</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>44720</v>
+      </c>
+      <c r="AI41" s="1">
+        <f t="shared" si="9"/>
+        <v>0.93130803030001785</v>
+      </c>
+      <c r="AJ41" s="1">
+        <f t="shared" si="10"/>
+        <v>0.95910011818335306</v>
+      </c>
+      <c r="AK41" s="1">
+        <f t="shared" si="11"/>
+        <v>0.99571809324070437</v>
+      </c>
+      <c r="AL41" s="1">
+        <f t="shared" si="12"/>
+        <v>0.92163438373325623</v>
+      </c>
+      <c r="AM41" s="1">
+        <f t="shared" si="13"/>
+        <v>0.93147260987294311</v>
+      </c>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>40</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-27</v>
       </c>
       <c r="F42">
@@ -4244,28 +8110,79 @@
         <v>1823.0476000000001</v>
       </c>
       <c r="I42" s="2">
+        <f t="shared" si="14"/>
+        <v>591.62306000000001</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="5"/>
-        <v>591.62306000000001</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="2"/>
         <v>-1.9575734032061254E-2</v>
       </c>
       <c r="K42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.43883847806213894</v>
       </c>
       <c r="L42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.5032289674997608E-2</v>
       </c>
+      <c r="Z42" s="2">
+        <f t="shared" si="8"/>
+        <v>680</v>
+      </c>
+      <c r="AA42">
+        <f>-$AB$42+AB42</f>
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>40</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>42915</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>45356</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>42932</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>46168</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>40873</v>
+      </c>
+      <c r="AI42" s="1">
+        <f t="shared" si="9"/>
+        <v>0.85323180308964752</v>
+      </c>
+      <c r="AJ42" s="1">
+        <f t="shared" si="10"/>
+        <v>0.95720074286679047</v>
+      </c>
+      <c r="AK42" s="1">
+        <f t="shared" si="11"/>
+        <v>0.93791235199021283</v>
+      </c>
+      <c r="AL42" s="1">
+        <f t="shared" si="12"/>
+        <v>0.88981401175676977</v>
+      </c>
+      <c r="AM42" s="1">
+        <f t="shared" si="13"/>
+        <v>0.85134347011039369</v>
+      </c>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1"/>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>41</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-28</v>
       </c>
       <c r="F43">
@@ -4278,28 +8195,79 @@
         <v>1706.1339</v>
       </c>
       <c r="I43" s="2">
+        <f t="shared" si="14"/>
+        <v>588.77823999999998</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="5"/>
-        <v>588.77823999999998</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="2"/>
         <v>-4.1995890385838341E-2</v>
       </c>
       <c r="K43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.60070143464465653</v>
       </c>
       <c r="L43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.2281789647701795E-3</v>
       </c>
+      <c r="Z43" s="2">
+        <f t="shared" si="8"/>
+        <v>683.76657999999998</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" ref="AA43:AA62" si="15">-$AB$42+AB43</f>
+        <v>1</v>
+      </c>
+      <c r="AB43">
+        <v>41</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>42790</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>42234</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>42553</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>46891</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>41192</v>
+      </c>
+      <c r="AI43" s="1">
+        <f t="shared" si="9"/>
+        <v>0.85074656540151505</v>
+      </c>
+      <c r="AJ43" s="1">
+        <f t="shared" si="10"/>
+        <v>0.89131352355225391</v>
+      </c>
+      <c r="AK43" s="1">
+        <f t="shared" si="11"/>
+        <v>0.92963254249137062</v>
+      </c>
+      <c r="AL43" s="1">
+        <f t="shared" si="12"/>
+        <v>0.90374867495422573</v>
+      </c>
+      <c r="AM43" s="1">
+        <f t="shared" si="13"/>
+        <v>0.85798791918350348</v>
+      </c>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D44">
         <v>42</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-29</v>
       </c>
       <c r="F44">
@@ -4312,28 +8280,79 @@
         <v>1643.5554999999999</v>
       </c>
       <c r="I44" s="2">
+        <f t="shared" si="14"/>
+        <v>585.95938000000001</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="5"/>
-        <v>585.95938000000001</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="2"/>
         <v>-5.1247923535081841E-2</v>
       </c>
       <c r="K44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.80814752559998515</v>
       </c>
       <c r="L44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.2259811421890199E-2</v>
       </c>
+      <c r="Z44" s="2">
+        <f t="shared" si="8"/>
+        <v>687.57303999999999</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="AB44">
+        <v>42</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>42405</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>40741</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>43536</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>42776</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>38821</v>
+      </c>
+      <c r="AI44" s="1">
+        <f t="shared" si="9"/>
+        <v>0.84309203332206695</v>
+      </c>
+      <c r="AJ44" s="1">
+        <f t="shared" si="10"/>
+        <v>0.85980499746749961</v>
+      </c>
+      <c r="AK44" s="1">
+        <f t="shared" si="11"/>
+        <v>0.95110761567702184</v>
+      </c>
+      <c r="AL44" s="1">
+        <f t="shared" si="12"/>
+        <v>0.8244386624265202</v>
+      </c>
+      <c r="AM44" s="1">
+        <f t="shared" si="13"/>
+        <v>0.80860237450531136</v>
+      </c>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1"/>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D45">
         <v>43</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-30</v>
       </c>
       <c r="F45">
@@ -4346,28 +8365,79 @@
         <v>1828.1101000000001</v>
       </c>
       <c r="I45" s="2">
+        <f t="shared" si="14"/>
+        <v>583.16599999999994</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="5"/>
-        <v>583.16599999999994</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="2"/>
         <v>-5.4907597442878708E-2</v>
       </c>
       <c r="K45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.62354086248991158</v>
       </c>
       <c r="L45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.6366143709815835E-2</v>
       </c>
+      <c r="Z45" s="2">
+        <f t="shared" si="8"/>
+        <v>691.41985999999997</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AB45">
+        <v>43</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>41066</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>41754</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>36493</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>41676</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>40858</v>
+      </c>
+      <c r="AI45" s="1">
+        <f t="shared" si="9"/>
+        <v>0.81647016720679166</v>
+      </c>
+      <c r="AJ45" s="1">
+        <f t="shared" si="10"/>
+        <v>0.88118352186392035</v>
+      </c>
+      <c r="AK45" s="1">
+        <f t="shared" si="11"/>
+        <v>0.79724297636212693</v>
+      </c>
+      <c r="AL45" s="1">
+        <f t="shared" si="12"/>
+        <v>0.80323793003758315</v>
+      </c>
+      <c r="AM45" s="1">
+        <f t="shared" si="13"/>
+        <v>0.85103103520099976</v>
+      </c>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D46">
         <v>44</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-31</v>
       </c>
       <c r="F46">
@@ -4380,28 +8450,79 @@
         <v>2060.3173999999999</v>
       </c>
       <c r="I46" s="2">
+        <f t="shared" si="14"/>
+        <v>580.39761999999996</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="5"/>
-        <v>580.39761999999996</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="2"/>
         <v>8.9241461384444776E-2</v>
       </c>
       <c r="K46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.64634464185103579</v>
       </c>
       <c r="L46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.7547505491394737E-2</v>
       </c>
+      <c r="Z46" s="2">
+        <f t="shared" si="8"/>
+        <v>695.30751999999995</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AB46">
+        <v>44</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>37068</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>41177</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>39820</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>39647</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>39855</v>
+      </c>
+      <c r="AI46" s="1">
+        <f t="shared" si="9"/>
+        <v>0.73698232498956195</v>
+      </c>
+      <c r="AJ46" s="1">
+        <f t="shared" si="10"/>
+        <v>0.86900641566773595</v>
+      </c>
+      <c r="AK46" s="1">
+        <f t="shared" si="11"/>
+        <v>0.86992615895486525</v>
+      </c>
+      <c r="AL46" s="1">
+        <f t="shared" si="12"/>
+        <v>0.76413221547653465</v>
+      </c>
+      <c r="AM46" s="1">
+        <f t="shared" si="13"/>
+        <v>0.83013955425952923</v>
+      </c>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+      <c r="AT46" s="1"/>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D47">
         <v>45</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-32</v>
       </c>
       <c r="F47">
@@ -4414,28 +8535,79 @@
         <v>2020.6666</v>
       </c>
       <c r="I47" s="2">
+        <f t="shared" si="14"/>
+        <v>577.65376000000003</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="5"/>
-        <v>577.65376000000003</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="2"/>
         <v>5.3427882352519551E-2</v>
       </c>
       <c r="K47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.69894889403805582</v>
       </c>
       <c r="L47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.7100418170156291E-2</v>
       </c>
+      <c r="Z47" s="2">
+        <f t="shared" si="8"/>
+        <v>699.23649999999998</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="AB47">
+        <v>45</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>40093</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>39660</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>36153</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>39153</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>36357</v>
+      </c>
+      <c r="AI47" s="1">
+        <f t="shared" si="9"/>
+        <v>0.79712507704236835</v>
+      </c>
+      <c r="AJ47" s="1">
+        <f t="shared" si="10"/>
+        <v>0.83699138949856489</v>
+      </c>
+      <c r="AK47" s="1">
+        <f t="shared" si="11"/>
+        <v>0.78981517892253239</v>
+      </c>
+      <c r="AL47" s="1">
+        <f t="shared" si="12"/>
+        <v>0.75461115929459377</v>
+      </c>
+      <c r="AM47" s="1">
+        <f t="shared" si="13"/>
+        <v>0.75727973338887733</v>
+      </c>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1"/>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D48">
         <v>46</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-33</v>
       </c>
       <c r="F48">
@@ -4448,28 +8620,79 @@
         <v>2005.6071999999999</v>
       </c>
       <c r="I48" s="2">
+        <f t="shared" si="14"/>
+        <v>574.93394000000001</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="5"/>
-        <v>574.93394000000001</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="2"/>
         <v>-2.1832522841904567E-2</v>
       </c>
       <c r="K48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.53948373933786253</v>
       </c>
       <c r="L48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.3132607512982626E-2</v>
       </c>
+      <c r="Z48" s="2">
+        <f t="shared" si="8"/>
+        <v>703.20727999999997</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="AB48">
+        <v>46</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>35945</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>39041</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>36177</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>41819</v>
+      </c>
+      <c r="AG48" s="1">
+        <v>38909</v>
+      </c>
+      <c r="AI48" s="1">
+        <f t="shared" si="9"/>
+        <v>0.7146549495993797</v>
+      </c>
+      <c r="AJ48" s="1">
+        <f t="shared" si="10"/>
+        <v>0.82392790815465133</v>
+      </c>
+      <c r="AK48" s="1">
+        <f t="shared" si="11"/>
+        <v>0.79033949403591564</v>
+      </c>
+      <c r="AL48" s="1">
+        <f t="shared" si="12"/>
+        <v>0.8059940252481449</v>
+      </c>
+      <c r="AM48" s="1">
+        <f t="shared" si="13"/>
+        <v>0.81043532597375545</v>
+      </c>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1"/>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D49">
         <v>47</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-34</v>
       </c>
       <c r="F49">
@@ -4482,28 +8705,79 @@
         <v>1695.8096</v>
       </c>
       <c r="I49" s="2">
+        <f t="shared" si="14"/>
+        <v>572.23767999999995</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="5"/>
-        <v>572.23767999999995</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="2"/>
         <v>3.6330100009674848E-2</v>
       </c>
       <c r="K49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.47341205368782913</v>
       </c>
       <c r="L49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.5079598612297018E-3</v>
       </c>
+      <c r="Z49" s="2">
+        <f t="shared" si="8"/>
+        <v>707.22033999999996</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="AB49">
+        <v>47</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>37285</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>39222</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>38380</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>37215</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>36890</v>
+      </c>
+      <c r="AI49" s="1">
+        <f t="shared" si="9"/>
+        <v>0.74129669761616002</v>
+      </c>
+      <c r="AJ49" s="1">
+        <f t="shared" si="10"/>
+        <v>0.82774776295796049</v>
+      </c>
+      <c r="AK49" s="1">
+        <f t="shared" si="11"/>
+        <v>0.83846725215187656</v>
+      </c>
+      <c r="AL49" s="1">
+        <f t="shared" si="12"/>
+        <v>0.71725932350390287</v>
+      </c>
+      <c r="AM49" s="1">
+        <f t="shared" si="13"/>
+        <v>0.76838158716933969</v>
+      </c>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1"/>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>48</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-35</v>
       </c>
       <c r="F50">
@@ -4516,28 +8790,79 @@
         <v>1766.6984</v>
       </c>
       <c r="I50" s="2">
+        <f t="shared" si="14"/>
+        <v>569.56449999999995</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="5"/>
-        <v>569.56449999999995</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="2"/>
         <v>-1.2006003700065049E-2</v>
       </c>
       <c r="K50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.32516473657219347</v>
       </c>
       <c r="L50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0185552335979573E-2</v>
       </c>
+      <c r="Z50" s="2">
+        <f t="shared" si="8"/>
+        <v>711.27616</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="AB50">
+        <v>48</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>36039</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>36595</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>37978</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>38120</v>
+      </c>
+      <c r="AG50" s="1">
+        <v>39032</v>
+      </c>
+      <c r="AI50" s="1">
+        <f t="shared" si="9"/>
+        <v>0.71652384834085536</v>
+      </c>
+      <c r="AJ50" s="1">
+        <f t="shared" si="10"/>
+        <v>0.77230710788451795</v>
+      </c>
+      <c r="AK50" s="1">
+        <f t="shared" si="11"/>
+        <v>0.82968497400270891</v>
+      </c>
+      <c r="AL50" s="1">
+        <f t="shared" si="12"/>
+        <v>0.7347017442420738</v>
+      </c>
+      <c r="AM50" s="1">
+        <f t="shared" si="13"/>
+        <v>0.81299729223078521</v>
+      </c>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="1"/>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D51">
         <v>49</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-36</v>
       </c>
       <c r="F51">
@@ -4550,28 +8875,79 @@
         <v>1907.4375</v>
       </c>
       <c r="I51" s="2">
+        <f t="shared" si="14"/>
+        <v>566.91391999999996</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="5"/>
-        <v>566.91391999999996</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="2"/>
         <v>-2.3687060796447779E-2</v>
       </c>
       <c r="K51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.26725046746149705</v>
       </c>
       <c r="L51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.7267116067670265E-2</v>
       </c>
+      <c r="Z51" s="2">
+        <f t="shared" si="8"/>
+        <v>715.37522000000001</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="AB51">
+        <v>49</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>36966</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>37349</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>34848</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>37321</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>36968</v>
+      </c>
+      <c r="AI51" s="1">
+        <f t="shared" si="9"/>
+        <v>0.73495437103604588</v>
+      </c>
+      <c r="AJ51" s="1">
+        <f t="shared" si="10"/>
+        <v>0.78821965220327539</v>
+      </c>
+      <c r="AK51" s="1">
+        <f t="shared" si="11"/>
+        <v>0.76130554463232403</v>
+      </c>
+      <c r="AL51" s="1">
+        <f t="shared" si="12"/>
+        <v>0.71930230317047317</v>
+      </c>
+      <c r="AM51" s="1">
+        <f t="shared" si="13"/>
+        <v>0.7700062486981879</v>
+      </c>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1"/>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D52">
         <v>50</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-37</v>
       </c>
       <c r="F52">
@@ -4584,28 +8960,79 @@
         <v>1901.1130000000001</v>
       </c>
       <c r="I52" s="2">
+        <f t="shared" si="14"/>
+        <v>564.28546000000006</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="5"/>
-        <v>564.28546000000006</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="2"/>
         <v>1.5379962780136536E-3</v>
       </c>
       <c r="K52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.13570310825272158</v>
       </c>
       <c r="L52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.5600753629505839E-2</v>
       </c>
+      <c r="Z52" s="2">
+        <f t="shared" si="8"/>
+        <v>719.51800000000003</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="AB52">
+        <v>50</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>34114</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>39026</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>37601</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>36021</v>
+      </c>
+      <c r="AG52" s="1">
+        <v>36142</v>
+      </c>
+      <c r="AI52" s="1">
+        <f t="shared" si="9"/>
+        <v>0.67825118794361494</v>
+      </c>
+      <c r="AJ52" s="1">
+        <f t="shared" si="10"/>
+        <v>0.82361134560189098</v>
+      </c>
+      <c r="AK52" s="1">
+        <f t="shared" si="11"/>
+        <v>0.82144885742998208</v>
+      </c>
+      <c r="AL52" s="1">
+        <f t="shared" si="12"/>
+        <v>0.69424689216536573</v>
+      </c>
+      <c r="AM52" s="1">
+        <f t="shared" si="13"/>
+        <v>0.75280149968756505</v>
+      </c>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1"/>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D53">
         <v>51</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-38</v>
       </c>
       <c r="F53">
@@ -4618,28 +9045,79 @@
         <v>1771.3581999999999</v>
       </c>
       <c r="I53" s="2">
+        <f t="shared" si="14"/>
+        <v>561.67863999999997</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="5"/>
-        <v>561.67863999999997</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="2"/>
         <v>-2.3087702542935795E-2</v>
       </c>
       <c r="K53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.9641657116491302E-2</v>
       </c>
       <c r="L53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.141330404589481E-2</v>
       </c>
+      <c r="Z53" s="2">
+        <f t="shared" si="8"/>
+        <v>723.70497999999998</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="AB53">
+        <v>51</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>34623</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>35963</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>36283</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>36149</v>
+      </c>
+      <c r="AG53" s="1">
+        <v>36307</v>
+      </c>
+      <c r="AI53" s="1">
+        <f t="shared" si="9"/>
+        <v>0.68837107580969048</v>
+      </c>
+      <c r="AJ53" s="1">
+        <f t="shared" si="10"/>
+        <v>0.7589692723282121</v>
+      </c>
+      <c r="AK53" s="1">
+        <f t="shared" si="11"/>
+        <v>0.79265521912002446</v>
+      </c>
+      <c r="AL53" s="1">
+        <f t="shared" si="12"/>
+        <v>0.69671388647971477</v>
+      </c>
+      <c r="AM53" s="1">
+        <f t="shared" si="13"/>
+        <v>0.75623828369089774</v>
+      </c>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+      <c r="AT53" s="1"/>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D54">
         <v>52</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-39</v>
       </c>
       <c r="F54">
@@ -4652,28 +9130,79 @@
         <v>1851.2023999999999</v>
       </c>
       <c r="I54" s="2">
+        <f t="shared" si="14"/>
+        <v>559.09298000000001</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="5"/>
-        <v>559.09298000000001</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="2"/>
         <v>-1.5084077727080092E-2</v>
       </c>
       <c r="K54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.1353055209463343E-2</v>
       </c>
       <c r="L54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.2450441493170343E-2</v>
       </c>
+      <c r="Z54" s="2">
+        <f t="shared" si="8"/>
+        <v>727.93664000000001</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="AB54">
+        <v>52</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>32161</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>34916</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>33589</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>34934</v>
+      </c>
+      <c r="AG54" s="1">
+        <v>34619</v>
+      </c>
+      <c r="AI54" s="1">
+        <f t="shared" si="9"/>
+        <v>0.63942183430423283</v>
+      </c>
+      <c r="AJ54" s="1">
+        <f t="shared" si="10"/>
+        <v>0.73687320614553431</v>
+      </c>
+      <c r="AK54" s="1">
+        <f t="shared" si="11"/>
+        <v>0.73380084764276665</v>
+      </c>
+      <c r="AL54" s="1">
+        <f t="shared" si="12"/>
+        <v>0.67329671388647971</v>
+      </c>
+      <c r="AM54" s="1">
+        <f t="shared" si="13"/>
+        <v>0.72107894188710686</v>
+      </c>
+      <c r="AP54" s="1"/>
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1"/>
+      <c r="AT54" s="1"/>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D55">
         <v>53</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-40</v>
       </c>
       <c r="F55">
@@ -4686,28 +9215,79 @@
         <v>1867.0942</v>
       </c>
       <c r="I55" s="2">
+        <f t="shared" si="14"/>
+        <v>556.52800000000002</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="5"/>
-        <v>556.52800000000002</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="2"/>
         <v>9.6417424831495846E-3</v>
       </c>
       <c r="K55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.6407261983529104E-2</v>
       </c>
       <c r="L55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.6637570688335628E-2</v>
       </c>
+      <c r="Z55" s="2">
+        <f t="shared" si="8"/>
+        <v>732.21345999999994</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="AB55">
+        <v>53</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>34184</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>35816</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>33328</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>31800</v>
+      </c>
+      <c r="AG55" s="1">
+        <v>35495</v>
+      </c>
+      <c r="AI55" s="1">
+        <f t="shared" si="9"/>
+        <v>0.67964292104896917</v>
+      </c>
+      <c r="AJ55" s="1">
+        <f t="shared" si="10"/>
+        <v>0.75586695931115988</v>
+      </c>
+      <c r="AK55" s="1">
+        <f t="shared" si="11"/>
+        <v>0.72809892078472493</v>
+      </c>
+      <c r="AL55" s="1">
+        <f t="shared" si="12"/>
+        <v>0.61289389997108989</v>
+      </c>
+      <c r="AM55" s="1">
+        <f t="shared" si="13"/>
+        <v>0.7393251405957092</v>
+      </c>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="1"/>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D56">
         <v>54</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-41</v>
       </c>
       <c r="F56">
@@ -4720,28 +9300,79 @@
         <v>1588.2202</v>
       </c>
       <c r="I56" s="2">
+        <f t="shared" si="14"/>
+        <v>553.98321999999996</v>
+      </c>
+      <c r="J56">
         <f t="shared" si="5"/>
-        <v>553.98321999999996</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="2"/>
         <v>1.2328025705270806E-2</v>
       </c>
       <c r="K56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.4892323134511858E-2</v>
       </c>
       <c r="L56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2.6839409085668231E-2</v>
       </c>
+      <c r="Z56" s="2">
+        <f t="shared" si="8"/>
+        <v>736.53592000000003</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="AB56">
+        <v>54</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>33241</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>36183</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>33299</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>37220</v>
+      </c>
+      <c r="AG56" s="1">
+        <v>34610</v>
+      </c>
+      <c r="AI56" s="1">
+        <f t="shared" si="9"/>
+        <v>0.66089428792969762</v>
+      </c>
+      <c r="AJ56" s="1">
+        <f t="shared" si="10"/>
+        <v>0.76361218976869827</v>
+      </c>
+      <c r="AK56" s="1">
+        <f t="shared" si="11"/>
+        <v>0.72746537335605366</v>
+      </c>
+      <c r="AL56" s="1">
+        <f t="shared" si="12"/>
+        <v>0.71735569046930714</v>
+      </c>
+      <c r="AM56" s="1">
+        <f t="shared" si="13"/>
+        <v>0.72089148094147049</v>
+      </c>
+      <c r="AP56" s="1"/>
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1"/>
+      <c r="AT56" s="1"/>
     </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D57">
         <v>55</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-42</v>
       </c>
       <c r="F57">
@@ -4754,28 +9385,79 @@
         <v>1907.8064999999999</v>
       </c>
       <c r="I57" s="2">
+        <f t="shared" si="14"/>
+        <v>551.45816000000002</v>
+      </c>
+      <c r="J57">
         <f t="shared" si="5"/>
-        <v>551.45816000000002</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="2"/>
         <v>1.6113668129422554E-2</v>
       </c>
       <c r="K57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.8449391588665023E-2</v>
       </c>
       <c r="L57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.7364339206208148E-2</v>
       </c>
+      <c r="Z57" s="2">
+        <f t="shared" si="8"/>
+        <v>740.90449999999998</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="AB57">
+        <v>55</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>33658</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>37743</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>32313</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>34707</v>
+      </c>
+      <c r="AG57" s="1">
+        <v>34386</v>
+      </c>
+      <c r="AI57" s="1">
+        <f t="shared" si="9"/>
+        <v>0.66918504085730757</v>
+      </c>
+      <c r="AJ57" s="1">
+        <f t="shared" si="10"/>
+        <v>0.79653469525578258</v>
+      </c>
+      <c r="AK57" s="1">
+        <f t="shared" si="11"/>
+        <v>0.70592476078122957</v>
+      </c>
+      <c r="AL57" s="1">
+        <f t="shared" si="12"/>
+        <v>0.6689216536571263</v>
+      </c>
+      <c r="AM57" s="1">
+        <f t="shared" si="13"/>
+        <v>0.71622578629452194</v>
+      </c>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1"/>
+      <c r="AT57" s="1"/>
     </row>
-    <row r="58" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D58">
         <v>56</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-43</v>
       </c>
       <c r="F58">
@@ -4788,20 +9470,475 @@
         <v>1842.1111000000001</v>
       </c>
       <c r="I58" s="2">
+        <f t="shared" si="14"/>
+        <v>548.95234000000005</v>
+      </c>
+      <c r="J58">
         <f t="shared" si="5"/>
-        <v>548.95234000000005</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="2"/>
         <v>1.1836614118043265E-2</v>
       </c>
       <c r="K58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.1180917031828672E-2</v>
       </c>
       <c r="L58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.005508995011009E-2</v>
+      </c>
+      <c r="Z58" s="2">
+        <f t="shared" si="8"/>
+        <v>745.31968000000006</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="AB58">
+        <v>56</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>34688</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>37723</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>34475</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>35271</v>
+      </c>
+      <c r="AG58" s="1">
+        <v>34579</v>
+      </c>
+      <c r="AI58" s="1">
+        <f t="shared" si="9"/>
+        <v>0.68966339940751931</v>
+      </c>
+      <c r="AJ58" s="1">
+        <f t="shared" si="10"/>
+        <v>0.79611261185210203</v>
+      </c>
+      <c r="AK58" s="1">
+        <f t="shared" si="11"/>
+        <v>0.75315681391182765</v>
+      </c>
+      <c r="AL58" s="1">
+        <f t="shared" si="12"/>
+        <v>0.67979184735472675</v>
+      </c>
+      <c r="AM58" s="1">
+        <f t="shared" si="13"/>
+        <v>0.72024578212872314</v>
+      </c>
+      <c r="AP58" s="1"/>
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="1"/>
+      <c r="AS58" s="1"/>
+      <c r="AT58" s="1"/>
+    </row>
+    <row r="59" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="Z59" s="2">
+        <f t="shared" si="8"/>
+        <v>749.78193999999996</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="AB59">
+        <v>57</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>32722</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>37487</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>34916</v>
+      </c>
+      <c r="AF59" s="1">
+        <v>34354</v>
+      </c>
+      <c r="AG59" s="1">
+        <v>34002</v>
+      </c>
+      <c r="AI59" s="1">
+        <f t="shared" si="9"/>
+        <v>0.65057558104857149</v>
+      </c>
+      <c r="AJ59" s="1">
+        <f t="shared" si="10"/>
+        <v>0.7911320276886713</v>
+      </c>
+      <c r="AK59" s="1">
+        <f t="shared" si="11"/>
+        <v>0.76279110412024298</v>
+      </c>
+      <c r="AL59" s="1">
+        <f t="shared" si="12"/>
+        <v>0.66211814589958562</v>
+      </c>
+      <c r="AM59" s="1">
+        <f t="shared" si="13"/>
+        <v>0.70822745261403874</v>
+      </c>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="1"/>
+      <c r="AT59" s="1"/>
+    </row>
+    <row r="60" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="Z60" s="2">
+        <f t="shared" si="8"/>
+        <v>754.29175999999995</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="AB60">
+        <v>58</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>33936</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>38494</v>
+      </c>
+      <c r="AE60" s="1">
+        <v>33388</v>
+      </c>
+      <c r="AF60" s="1">
+        <v>34093</v>
+      </c>
+      <c r="AG60" s="1">
+        <v>34851</v>
+      </c>
+      <c r="AI60" s="1">
+        <f t="shared" si="9"/>
+        <v>0.67471220947571431</v>
+      </c>
+      <c r="AJ60" s="1">
+        <f t="shared" si="10"/>
+        <v>0.81238392706398788</v>
+      </c>
+      <c r="AK60" s="1">
+        <f t="shared" si="11"/>
+        <v>0.72940970856818277</v>
+      </c>
+      <c r="AL60" s="1">
+        <f t="shared" si="12"/>
+        <v>0.65708779030548325</v>
+      </c>
+      <c r="AM60" s="1">
+        <f t="shared" si="13"/>
+        <v>0.72591126848573218</v>
+      </c>
+      <c r="AP60" s="1"/>
+      <c r="AQ60" s="1"/>
+      <c r="AR60" s="1"/>
+      <c r="AS60" s="1"/>
+      <c r="AT60" s="1"/>
+    </row>
+    <row r="61" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="Z61" s="2">
+        <f t="shared" si="8"/>
+        <v>758.84961999999996</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="AB61">
+        <v>59</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>35000</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>42366</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>32942</v>
+      </c>
+      <c r="AF61" s="1">
+        <v>35369</v>
+      </c>
+      <c r="AG61" s="1">
+        <v>35226</v>
+      </c>
+      <c r="AI61" s="1">
+        <f t="shared" si="9"/>
+        <v>0.69586655267709807</v>
+      </c>
+      <c r="AJ61" s="1">
+        <f t="shared" si="10"/>
+        <v>0.89409927401654565</v>
+      </c>
+      <c r="AK61" s="1">
+        <f t="shared" si="11"/>
+        <v>0.71966618604447941</v>
+      </c>
+      <c r="AL61" s="1">
+        <f t="shared" si="12"/>
+        <v>0.68168063987665029</v>
+      </c>
+      <c r="AM61" s="1">
+        <f t="shared" si="13"/>
+        <v>0.73372214122057899</v>
+      </c>
+      <c r="AP61" s="1"/>
+      <c r="AQ61" s="1"/>
+      <c r="AR61" s="1"/>
+      <c r="AS61" s="1"/>
+      <c r="AT61" s="1"/>
+    </row>
+    <row r="62" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="Z62" s="2">
+        <f t="shared" si="8"/>
+        <v>763.45600000000002</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="AB62">
+        <v>60</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>32573</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>42665</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>34642</v>
+      </c>
+      <c r="AF62" s="1">
+        <v>31725</v>
+      </c>
+      <c r="AG62" s="1">
+        <v>33546</v>
+      </c>
+      <c r="AI62" s="1">
+        <f t="shared" si="9"/>
+        <v>0.64761317772431759</v>
+      </c>
+      <c r="AJ62" s="1">
+        <f t="shared" si="10"/>
+        <v>0.90040942090157017</v>
+      </c>
+      <c r="AK62" s="1">
+        <f t="shared" si="11"/>
+        <v>0.756805173242452</v>
+      </c>
+      <c r="AL62" s="1">
+        <f t="shared" si="12"/>
+        <v>0.61144839549002605</v>
+      </c>
+      <c r="AM62" s="1">
+        <f t="shared" si="13"/>
+        <v>0.69872943136846488</v>
+      </c>
+      <c r="AP62" s="1"/>
+      <c r="AQ62" s="1"/>
+      <c r="AR62" s="1"/>
+      <c r="AS62" s="1"/>
+      <c r="AT62" s="1"/>
+    </row>
+    <row r="63" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="Z63" s="2"/>
+      <c r="AC63" s="3">
+        <f>SUMPRODUCT(AC2:AC62,$Z$2:$Z$62)</f>
+        <v>1548698675.6181607</v>
+      </c>
+      <c r="AD63" s="3">
+        <f>SUMPRODUCT(AD2:AD62,$Z$2:$Z$62)</f>
+        <v>1487565133.8917599</v>
+      </c>
+      <c r="AE63" s="3">
+        <f>SUMPRODUCT(AE2:AE62,$Z$2:$Z$62)</f>
+        <v>1437455359.2230401</v>
+      </c>
+      <c r="AF63" s="3">
+        <f>SUMPRODUCT(AF2:AF62,$Z$2:$Z$62)</f>
+        <v>1471790149.8326995</v>
+      </c>
+      <c r="AG63" s="3">
+        <f>SUMPRODUCT(AG2:AG62,$Z$2:$Z$62)</f>
+        <v>1445873107.56352</v>
+      </c>
+      <c r="AH63" s="3"/>
+      <c r="AI63" s="3">
+        <f>SUMPRODUCT(AI2:AI62,$AB$2:$AB$62)</f>
+        <v>1399.5909099946316</v>
+      </c>
+      <c r="AJ63" s="3">
+        <f t="shared" ref="AJ63" si="16">SUMPRODUCT(AJ2:AJ62,$AB$2:$AB$62)</f>
+        <v>1489.926473071079</v>
+      </c>
+      <c r="AK63" s="3">
+        <f t="shared" ref="AK63" si="17">SUMPRODUCT(AK2:AK62,$AB$2:$AB$62)</f>
+        <v>1467.868833835802</v>
+      </c>
+      <c r="AL63" s="3">
+        <f t="shared" ref="AL63" si="18">SUMPRODUCT(AL2:AL62,$AB$2:$AB$62)</f>
+        <v>1335.2479329285916</v>
+      </c>
+      <c r="AM63" s="3">
+        <f>SUMPRODUCT(AM2:AM62,$Z$2:$Z$62)</f>
+        <v>30116.082223776717</v>
+      </c>
+      <c r="AP63" s="3">
+        <f t="shared" ref="AP63" si="19">SUMPRODUCT(AP2:AP62,$AB$2:$AB$62)</f>
+        <v>19759713</v>
+      </c>
+      <c r="AQ63" s="3">
+        <f>SUMPRODUCT(AQ2:AQ62,$Z$2:$Z$62)</f>
+        <v>781326969.49545991</v>
+      </c>
+      <c r="AR63" s="3">
+        <f t="shared" ref="AR63:AS63" si="20">SUMPRODUCT(AR2:AR62,$AB$2:$AB$62)</f>
+        <v>19059077</v>
+      </c>
+      <c r="AS63" s="3">
+        <f t="shared" si="20"/>
+        <v>20122929</v>
+      </c>
+      <c r="AT63" s="3">
+        <f t="shared" ref="AT63" si="21">SUMPRODUCT(AT2:AT62,$AB$2:$AB$62)</f>
+        <v>19644721</v>
+      </c>
+    </row>
+    <row r="64" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="Z64" s="2"/>
+      <c r="AC64" s="1">
+        <f>SUM(AC2:AC62)</f>
+        <v>2391595</v>
+      </c>
+      <c r="AD64" s="1">
+        <f t="shared" ref="AD64:AH64" si="22">SUM(AD2:AD62)</f>
+        <v>2277788</v>
+      </c>
+      <c r="AE64" s="1">
+        <f t="shared" si="22"/>
+        <v>2207996</v>
+      </c>
+      <c r="AF64" s="1">
+        <f t="shared" si="22"/>
+        <v>2257925</v>
+      </c>
+      <c r="AG64" s="1">
+        <f t="shared" si="22"/>
+        <v>2218331</v>
+      </c>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1">
+        <f>SUM(AI2:AI62)</f>
+        <v>47.549456229993837</v>
+      </c>
+      <c r="AJ64" s="1">
+        <f t="shared" ref="AJ64:AM64" si="23">SUM(AJ2:AJ62)</f>
+        <v>48.070825595137578</v>
+      </c>
+      <c r="AK64" s="1">
+        <f t="shared" si="23"/>
+        <v>48.23690304539695</v>
+      </c>
+      <c r="AL64" s="1">
+        <f t="shared" si="23"/>
+        <v>43.517876072082487</v>
+      </c>
+      <c r="AM64" s="1">
+        <f t="shared" si="23"/>
+        <v>46.205602999375131</v>
+      </c>
+      <c r="AP64" s="1">
+        <f>SUM(AP2:AP62)</f>
+        <v>1413613</v>
+      </c>
+      <c r="AQ64" s="1">
+        <f>SUM(AQ2:AQ62)</f>
+        <v>1308870</v>
+      </c>
+      <c r="AR64" s="1">
+        <f>SUM(AR2:AR62)</f>
+        <v>1339455</v>
+      </c>
+      <c r="AS64" s="1">
+        <f>SUM(AS2:AS62)</f>
+        <v>1422066</v>
+      </c>
+      <c r="AT64" s="1">
+        <f>SUM(AT2:AT62)</f>
+        <v>1403320</v>
+      </c>
+    </row>
+    <row r="65" spans="26:46" x14ac:dyDescent="0.25">
+      <c r="Z65" s="2"/>
+      <c r="AC65" s="3">
+        <f>AC63/AC64</f>
+        <v>647.55892014248263</v>
+      </c>
+      <c r="AD65" s="3">
+        <f t="shared" ref="AD65:AH65" si="24">AD63/AD64</f>
+        <v>653.07444498423899</v>
+      </c>
+      <c r="AE65" s="3">
+        <f t="shared" si="24"/>
+        <v>651.02262831229768</v>
+      </c>
+      <c r="AF65" s="3">
+        <f t="shared" si="24"/>
+        <v>651.83305461106966</v>
+      </c>
+      <c r="AG65" s="3">
+        <f t="shared" si="24"/>
+        <v>651.78420513598735</v>
+      </c>
+      <c r="AH65" s="3"/>
+      <c r="AI65" s="3">
+        <f>AI63/AI64</f>
+        <v>29.434425143053062</v>
+      </c>
+      <c r="AJ65" s="3">
+        <f t="shared" ref="AJ65" si="25">AJ63/AJ64</f>
+        <v>30.994401586100217</v>
+      </c>
+      <c r="AK65" s="3">
+        <f t="shared" ref="AK65" si="26">AK63/AK64</f>
+        <v>30.430412011615964</v>
+      </c>
+      <c r="AL65" s="3">
+        <f t="shared" ref="AL65" si="27">AL63/AL64</f>
+        <v>30.682745883942104</v>
+      </c>
+      <c r="AM65" s="3">
+        <f t="shared" ref="AM65" si="28">AM63/AM64</f>
+        <v>651.78420513598746</v>
+      </c>
+      <c r="AP65" s="3">
+        <f t="shared" ref="AP65" si="29">AP63/AP64</f>
+        <v>13.978163047453581</v>
+      </c>
+      <c r="AQ65" s="3">
+        <f t="shared" ref="AQ65" si="30">AQ63/AQ64</f>
+        <v>596.94772551549045</v>
+      </c>
+      <c r="AR65" s="3">
+        <f t="shared" ref="AR65:AS65" si="31">AR63/AR64</f>
+        <v>14.228978950394003</v>
+      </c>
+      <c r="AS65" s="3">
+        <f t="shared" si="31"/>
+        <v>14.150488795878672</v>
+      </c>
+      <c r="AT65" s="3">
+        <f t="shared" ref="AT65" si="32">AT63/AT64</f>
+        <v>13.998746543910157</v>
       </c>
     </row>
   </sheetData>

--- a/beads/calc.xlsx
+++ b/beads/calc.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27105" windowHeight="11130" xr2:uid="{51A4196A-617C-44C0-B166-0DE770D241B2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27105" windowHeight="11130" activeTab="1" xr2:uid="{51A4196A-617C-44C0-B166-0DE770D241B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="polypoints" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="13">
   <si>
     <t>pixel</t>
   </si>
@@ -36,6 +37,33 @@
   </si>
   <si>
     <t>green</t>
+  </si>
+  <si>
+    <t>initial points</t>
+  </si>
+  <si>
+    <t>coef</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>coef med</t>
   </si>
 </sst>
 </file>
@@ -51,15 +79,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -67,15 +113,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4296,7 +4426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC2F9C7-2B8A-4BC7-8D3E-346E37D8E7E2}">
   <dimension ref="D1:AT65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC65" workbookViewId="0">
+    <sheetView topLeftCell="AC65" workbookViewId="0">
       <selection activeCell="AR62" sqref="AR62"/>
     </sheetView>
   </sheetViews>
@@ -4494,7 +4624,7 @@
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" ref="Z3:Z65" si="8">$Q$3*AA3^3 + $Q$4*AA3^2 + $Q$5*AA3 + $Q$6</f>
+        <f t="shared" ref="Z3:Z62" si="8">$Q$3*AA3^3 + $Q$4*AA3^2 + $Q$5*AA3 + $Q$6</f>
         <v>559.09298000000001</v>
       </c>
       <c r="AA3">
@@ -9820,7 +9950,7 @@
         <v>2391595</v>
       </c>
       <c r="AD64" s="1">
-        <f t="shared" ref="AD64:AH64" si="22">SUM(AD2:AD62)</f>
+        <f t="shared" ref="AD64:AG64" si="22">SUM(AD2:AD62)</f>
         <v>2277788</v>
       </c>
       <c r="AE64" s="1">
@@ -9884,7 +10014,7 @@
         <v>647.55892014248263</v>
       </c>
       <c r="AD65" s="3">
-        <f t="shared" ref="AD65:AH65" si="24">AD63/AD64</f>
+        <f t="shared" ref="AD65:AG65" si="24">AD63/AD64</f>
         <v>653.07444498423899</v>
       </c>
       <c r="AE65" s="3">
@@ -9946,4 +10076,876 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77594E83-AEAE-4378-88B0-EFBC6AA4FFE3}">
+  <dimension ref="C2:U41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C2" s="11"/>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="12"/>
+      <c r="D3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C4" s="10">
+        <v>488</v>
+      </c>
+      <c r="D4" s="6">
+        <v>252</v>
+      </c>
+      <c r="E4" s="6">
+        <v>213</v>
+      </c>
+      <c r="G4" s="15">
+        <v>2.3683107199999999E-4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="10">
+        <v>488</v>
+      </c>
+      <c r="K4" s="6">
+        <v>243</v>
+      </c>
+      <c r="L4" s="6">
+        <v>227</v>
+      </c>
+      <c r="N4" s="15">
+        <v>6.5455799599999998E-4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="13">
+        <f>(G4+G11+G18+G25+G32+N4+N11+N18+N25)/9</f>
+        <v>4.6197746566666666E-4</v>
+      </c>
+      <c r="R4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="1">
+        <f>_xlfn.STDEV.P(G4,G11,G18,G25,G32,N4,N11,N18,N25)</f>
+        <v>1.829829473916334E-4</v>
+      </c>
+      <c r="U4" s="1">
+        <f>S4/Q4</f>
+        <v>0.39608630504861503</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C5" s="4">
+        <v>592</v>
+      </c>
+      <c r="D5" s="6">
+        <v>252</v>
+      </c>
+      <c r="E5" s="6">
+        <v>255</v>
+      </c>
+      <c r="G5" s="15">
+        <v>3.7604625000000003E-2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="4">
+        <v>592</v>
+      </c>
+      <c r="K5" s="6">
+        <v>245</v>
+      </c>
+      <c r="L5" s="6">
+        <v>265</v>
+      </c>
+      <c r="N5" s="15">
+        <v>6.7290037699999999E-2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="14">
+        <f>(G5+G12+G19+G26+G33+N5+N12+N19+N26)/9</f>
+        <v>5.1402139744444443E-2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" ref="S5:S7" si="0">_xlfn.STDEV.P(G5,G12,G19,G26,G33,N5,N12,N19,N26)</f>
+        <v>1.4509092009951667E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C6" s="4">
+        <v>680</v>
+      </c>
+      <c r="D6" s="6">
+        <v>257</v>
+      </c>
+      <c r="E6" s="6">
+        <v>283</v>
+      </c>
+      <c r="G6" s="15">
+        <v>4.2158718799999999</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4">
+        <v>680</v>
+      </c>
+      <c r="K6" s="6">
+        <v>246</v>
+      </c>
+      <c r="L6" s="6">
+        <v>296</v>
+      </c>
+      <c r="N6" s="16">
+        <v>4.2387250300000003</v>
+      </c>
+      <c r="O6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="14">
+        <f t="shared" ref="Q5:Q8" si="1">(G6+G13+G20+G27+G34+N6+N13+N20+N27)/9</f>
+        <v>4.1012028733333334</v>
+      </c>
+      <c r="R6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15179144175022913</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C7" s="4">
+        <v>735</v>
+      </c>
+      <c r="D7" s="6">
+        <v>259</v>
+      </c>
+      <c r="E7" s="6">
+        <v>296</v>
+      </c>
+      <c r="G7" s="16">
+        <v>680</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="4">
+        <v>735</v>
+      </c>
+      <c r="K7" s="6">
+        <v>248</v>
+      </c>
+      <c r="L7" s="6">
+        <v>308</v>
+      </c>
+      <c r="N7" s="16">
+        <v>680</v>
+      </c>
+      <c r="O7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="14">
+        <f t="shared" si="1"/>
+        <v>680</v>
+      </c>
+      <c r="R7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C9" s="11"/>
+      <c r="D9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C10" s="12"/>
+      <c r="D10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>4.7898776511111119E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C11" s="10">
+        <v>488</v>
+      </c>
+      <c r="D11" s="6">
+        <f>D4+10</f>
+        <v>262</v>
+      </c>
+      <c r="E11" s="6">
+        <v>214</v>
+      </c>
+      <c r="G11" s="15">
+        <v>3.8063972E-4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="10">
+        <v>488</v>
+      </c>
+      <c r="K11" s="6">
+        <v>243</v>
+      </c>
+      <c r="L11" s="6">
+        <v>239</v>
+      </c>
+      <c r="N11" s="15">
+        <v>6.8868899500000005E-4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C12" s="4">
+        <v>592</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" ref="D12:D14" si="2">D5+10</f>
+        <v>262</v>
+      </c>
+      <c r="E12" s="6">
+        <v>255</v>
+      </c>
+      <c r="G12" s="15">
+        <v>4.5465020299999999E-2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="4">
+        <v>592</v>
+      </c>
+      <c r="K12" s="6">
+        <v>245</v>
+      </c>
+      <c r="L12" s="6">
+        <v>275</v>
+      </c>
+      <c r="N12" s="15">
+        <v>6.8525977500000002E-2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
+        <v>680</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="2"/>
+        <v>267</v>
+      </c>
+      <c r="E13" s="6">
+        <v>283</v>
+      </c>
+      <c r="G13" s="16">
+        <v>4.1047778199999998</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="4">
+        <v>680</v>
+      </c>
+      <c r="K13" s="6">
+        <v>246</v>
+      </c>
+      <c r="L13" s="6">
+        <v>306</v>
+      </c>
+      <c r="N13" s="16">
+        <v>4.2449291899999997</v>
+      </c>
+      <c r="O13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C14" s="4">
+        <v>735</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="2"/>
+        <v>269</v>
+      </c>
+      <c r="E14" s="6">
+        <v>295</v>
+      </c>
+      <c r="G14" s="16">
+        <v>680</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="4">
+        <v>735</v>
+      </c>
+      <c r="K14" s="6">
+        <v>248</v>
+      </c>
+      <c r="L14" s="6">
+        <v>318</v>
+      </c>
+      <c r="N14" s="16">
+        <v>680</v>
+      </c>
+      <c r="O14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C16" s="11"/>
+      <c r="D16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C17" s="12"/>
+      <c r="D17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C18" s="10">
+        <v>488</v>
+      </c>
+      <c r="D18" s="6">
+        <f>D11+10</f>
+        <v>272</v>
+      </c>
+      <c r="E18" s="6">
+        <v>214</v>
+      </c>
+      <c r="G18" s="15">
+        <v>3.8470004600000001E-4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="10">
+        <v>488</v>
+      </c>
+      <c r="K18" s="6">
+        <v>243</v>
+      </c>
+      <c r="L18" s="6">
+        <v>250</v>
+      </c>
+      <c r="N18" s="15">
+        <v>6.8443142100000005E-4</v>
+      </c>
+      <c r="O18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C19" s="4">
+        <v>592</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19:D21" si="3">D12+10</f>
+        <v>272</v>
+      </c>
+      <c r="E19" s="6">
+        <v>255</v>
+      </c>
+      <c r="G19" s="15">
+        <v>4.5216599500000003E-2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="4">
+        <v>592</v>
+      </c>
+      <c r="K19" s="6">
+        <v>245</v>
+      </c>
+      <c r="L19" s="6">
+        <v>289</v>
+      </c>
+      <c r="N19" s="15">
+        <v>7.1511748599999994E-2</v>
+      </c>
+      <c r="O19" t="s">
+        <v>9</v>
+      </c>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C20" s="4">
+        <v>680</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="3"/>
+        <v>277</v>
+      </c>
+      <c r="E20" s="6">
+        <v>283</v>
+      </c>
+      <c r="G20" s="16">
+        <v>4.0867856500000004</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="4">
+        <v>680</v>
+      </c>
+      <c r="K20" s="6">
+        <v>246</v>
+      </c>
+      <c r="L20" s="6">
+        <v>321</v>
+      </c>
+      <c r="N20" s="15">
+        <v>4.29332358</v>
+      </c>
+      <c r="O20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C21" s="4">
+        <v>735</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="3"/>
+        <v>279</v>
+      </c>
+      <c r="E21" s="6">
+        <v>295</v>
+      </c>
+      <c r="G21" s="16">
+        <v>680</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="4">
+        <v>735</v>
+      </c>
+      <c r="K21" s="6">
+        <v>248</v>
+      </c>
+      <c r="L21" s="6">
+        <v>333</v>
+      </c>
+      <c r="N21" s="16">
+        <v>680</v>
+      </c>
+      <c r="O21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C23" s="11"/>
+      <c r="D23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C24" s="12"/>
+      <c r="D24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C25" s="10">
+        <v>488</v>
+      </c>
+      <c r="D25" s="6">
+        <v>275</v>
+      </c>
+      <c r="E25" s="6">
+        <v>214</v>
+      </c>
+      <c r="G25" s="15">
+        <v>2.7190682899999998E-4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="10">
+        <v>488</v>
+      </c>
+      <c r="K25" s="6">
+        <v>243</v>
+      </c>
+      <c r="L25" s="6">
+        <v>263</v>
+      </c>
+      <c r="N25" s="15">
+        <v>6.0360838800000002E-4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C26" s="4">
+        <v>592</v>
+      </c>
+      <c r="D26" s="6">
+        <v>278</v>
+      </c>
+      <c r="E26" s="6">
+        <v>255</v>
+      </c>
+      <c r="G26" s="15">
+        <v>3.47540551E-2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="4">
+        <v>592</v>
+      </c>
+      <c r="K26" s="6">
+        <v>245</v>
+      </c>
+      <c r="L26" s="6">
+        <v>300</v>
+      </c>
+      <c r="N26" s="15">
+        <v>5.9313698300000002E-2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C27" s="4">
+        <v>680</v>
+      </c>
+      <c r="D27" s="6">
+        <v>280</v>
+      </c>
+      <c r="E27" s="6">
+        <v>283</v>
+      </c>
+      <c r="G27" s="16">
+        <v>3.8993954500000001</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="4">
+        <v>680</v>
+      </c>
+      <c r="K27" s="6">
+        <v>246</v>
+      </c>
+      <c r="L27" s="6">
+        <v>332</v>
+      </c>
+      <c r="N27" s="15">
+        <v>3.9697745200000001</v>
+      </c>
+      <c r="O27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C28" s="4">
+        <v>735</v>
+      </c>
+      <c r="D28" s="6">
+        <v>280</v>
+      </c>
+      <c r="E28" s="6">
+        <v>295</v>
+      </c>
+      <c r="G28" s="16">
+        <v>680</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="4">
+        <v>735</v>
+      </c>
+      <c r="K28" s="6">
+        <v>248</v>
+      </c>
+      <c r="L28" s="6">
+        <v>345</v>
+      </c>
+      <c r="N28" s="16">
+        <v>680</v>
+      </c>
+      <c r="O28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C30" s="11"/>
+      <c r="D30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C31" s="12"/>
+      <c r="D31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C32" s="10">
+        <v>488</v>
+      </c>
+      <c r="D32" s="6">
+        <f>D25+10</f>
+        <v>285</v>
+      </c>
+      <c r="E32" s="6">
+        <v>214</v>
+      </c>
+      <c r="G32" s="15">
+        <v>2.5243272400000001E-4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="4">
+        <v>592</v>
+      </c>
+      <c r="D33" s="6">
+        <f t="shared" ref="D33:D35" si="4">D26+10</f>
+        <v>288</v>
+      </c>
+      <c r="E33" s="6">
+        <v>255</v>
+      </c>
+      <c r="G33" s="15">
+        <v>3.29374957E-2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C34" s="4">
+        <v>680</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="E34" s="6">
+        <v>283</v>
+      </c>
+      <c r="G34" s="16">
+        <v>3.8572427399999998</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="4">
+        <v>735</v>
+      </c>
+      <c r="D35" s="6">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="E35" s="6">
+        <v>295</v>
+      </c>
+      <c r="G35" s="16">
+        <v>680</v>
+      </c>
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G37" s="1">
+        <f>AVERAGE(G4,G25,G32)</f>
+        <v>2.5372354166666662E-4</v>
+      </c>
+      <c r="N37" s="1">
+        <f>AVERAGE(N4,N11,N18,N25)</f>
+        <v>6.5782170000000008E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G38" s="1">
+        <f t="shared" ref="G38:G39" si="5">AVERAGE(G5,G26,G33)</f>
+        <v>3.5098725266666665E-2</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" ref="N38:N40" si="6">AVERAGE(N5,N12,N19,N26)</f>
+        <v>6.6660365525000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G39" s="1">
+        <f t="shared" si="5"/>
+        <v>3.9908366900000001</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="6"/>
+        <v>4.1866880800000006</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G40" s="1">
+        <f t="shared" ref="G38:G40" si="7">AVERAGE(G7,G14,G21,G28,G35)</f>
+        <v>680</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="6"/>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G41" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D23:E23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>